--- a/data/out/df_csv_condensed.xlsx
+++ b/data/out/df_csv_condensed.xlsx
@@ -911,7 +911,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>6 to 9 years</t>
+          <t>06 to 09 years</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>&lt;5 years</t>
+          <t>02 to 05 years</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
@@ -1595,7 +1595,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>&gt;18 years</t>
+          <t>18+ years</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
@@ -1931,7 +1931,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>&lt;5 years</t>
+          <t>02 to 05 years</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
@@ -2267,7 +2267,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>&lt;5 years</t>
+          <t>02 to 05 years</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>6 to 9 years</t>
+          <t>06 to 09 years</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
@@ -3443,7 +3443,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>&gt;18 years</t>
+          <t>18+ years</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
@@ -3611,7 +3611,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>&lt;5 years</t>
+          <t>02 to 05 years</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
@@ -3947,7 +3947,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>&lt;5 years</t>
+          <t>02 to 05 years</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
@@ -4283,7 +4283,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>&lt;5 years</t>
+          <t>02 to 05 years</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
@@ -4787,7 +4787,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>6 to 9 years</t>
+          <t>06 to 09 years</t>
         </is>
       </c>
       <c r="AC26" t="inlineStr">
@@ -4955,7 +4955,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>&lt;5 years</t>
+          <t>02 to 05 years</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr">
@@ -5123,7 +5123,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>&lt;5 years</t>
+          <t>02 to 05 years</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr">
@@ -5963,7 +5963,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>&lt;5 years</t>
+          <t>02 to 05 years</t>
         </is>
       </c>
       <c r="AC33" t="inlineStr">
@@ -6131,7 +6131,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>6 to 9 years</t>
+          <t>06 to 09 years</t>
         </is>
       </c>
       <c r="AC34" t="inlineStr">
@@ -6471,7 +6471,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>&lt;5 years</t>
+          <t>02 to 05 years</t>
         </is>
       </c>
       <c r="AC36" t="inlineStr">
@@ -6639,7 +6639,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>&lt;5 years</t>
+          <t>02 to 05 years</t>
         </is>
       </c>
       <c r="AC37" t="inlineStr">
@@ -6979,7 +6979,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>&gt;18 years</t>
+          <t>18+ years</t>
         </is>
       </c>
       <c r="AC39" t="inlineStr">
@@ -7147,7 +7147,7 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>6 to 9 years</t>
+          <t>06 to 09 years</t>
         </is>
       </c>
       <c r="AC40" t="inlineStr">
@@ -7315,7 +7315,7 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>6 to 9 years</t>
+          <t>06 to 09 years</t>
         </is>
       </c>
       <c r="AC41" t="inlineStr">
@@ -7483,7 +7483,7 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>6 to 9 years</t>
+          <t>06 to 09 years</t>
         </is>
       </c>
       <c r="AC42" t="inlineStr">
@@ -7655,7 +7655,7 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>6 to 9 years</t>
+          <t>06 to 09 years</t>
         </is>
       </c>
       <c r="AC43" t="inlineStr">
@@ -8159,7 +8159,7 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>6 to 9 years</t>
+          <t>06 to 09 years</t>
         </is>
       </c>
       <c r="AC46" t="inlineStr">
@@ -8499,7 +8499,7 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>&gt;18 years</t>
+          <t>18+ years</t>
         </is>
       </c>
       <c r="AC48" t="inlineStr">
@@ -8671,7 +8671,7 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>&gt;18 years</t>
+          <t>18+ years</t>
         </is>
       </c>
       <c r="AC49" t="inlineStr">
@@ -8839,7 +8839,7 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>&gt;18 years</t>
+          <t>18+ years</t>
         </is>
       </c>
       <c r="AC50" t="inlineStr">
@@ -9011,7 +9011,7 @@
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>&gt;18 years</t>
+          <t>18+ years</t>
         </is>
       </c>
       <c r="AC51" t="inlineStr">
@@ -9183,7 +9183,7 @@
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>&gt;18 years</t>
+          <t>18+ years</t>
         </is>
       </c>
       <c r="AC52" t="inlineStr">
@@ -9351,7 +9351,7 @@
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>6 to 9 years</t>
+          <t>06 to 09 years</t>
         </is>
       </c>
       <c r="AC53" t="inlineStr">
@@ -9519,7 +9519,7 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>6 to 9 years</t>
+          <t>06 to 09 years</t>
         </is>
       </c>
       <c r="AC54" t="inlineStr">
@@ -9687,7 +9687,7 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>&lt;5 years</t>
+          <t>02 to 05 years</t>
         </is>
       </c>
       <c r="AC55" t="inlineStr">
@@ -9855,7 +9855,7 @@
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>&lt;5 years</t>
+          <t>02 to 05 years</t>
         </is>
       </c>
       <c r="AC56" t="inlineStr">
@@ -10195,7 +10195,7 @@
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>6 to 9 years</t>
+          <t>06 to 09 years</t>
         </is>
       </c>
       <c r="AC58" t="inlineStr">
@@ -10707,7 +10707,7 @@
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>&lt;5 years</t>
+          <t>02 to 05 years</t>
         </is>
       </c>
       <c r="AC61" t="inlineStr">
@@ -10879,7 +10879,7 @@
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>&lt;5 years</t>
+          <t>02 to 05 years</t>
         </is>
       </c>
       <c r="AC62" t="inlineStr">
@@ -11219,7 +11219,7 @@
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>&lt;5 years</t>
+          <t>02 to 05 years</t>
         </is>
       </c>
       <c r="AC64" t="inlineStr">
@@ -11391,7 +11391,7 @@
       </c>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>6 to 9 years</t>
+          <t>06 to 09 years</t>
         </is>
       </c>
       <c r="AC65" t="inlineStr">
@@ -12075,7 +12075,7 @@
       </c>
       <c r="AB69" t="inlineStr">
         <is>
-          <t>&lt;5 years</t>
+          <t>02 to 05 years</t>
         </is>
       </c>
       <c r="AC69" t="inlineStr">
@@ -12247,7 +12247,7 @@
       </c>
       <c r="AB70" t="inlineStr">
         <is>
-          <t>6 to 9 years</t>
+          <t>06 to 09 years</t>
         </is>
       </c>
       <c r="AC70" t="inlineStr">
@@ -12415,7 +12415,7 @@
       </c>
       <c r="AB71" t="inlineStr">
         <is>
-          <t>6 to 9 years</t>
+          <t>06 to 09 years</t>
         </is>
       </c>
       <c r="AC71" t="inlineStr">
@@ -12583,7 +12583,7 @@
       </c>
       <c r="AB72" t="inlineStr">
         <is>
-          <t>6 to 9 years</t>
+          <t>06 to 09 years</t>
         </is>
       </c>
       <c r="AC72" t="inlineStr">
@@ -12755,7 +12755,7 @@
       </c>
       <c r="AB73" t="inlineStr">
         <is>
-          <t>6 to 9 years</t>
+          <t>06 to 09 years</t>
         </is>
       </c>
       <c r="AC73" t="inlineStr">
@@ -12923,7 +12923,7 @@
       </c>
       <c r="AB74" t="inlineStr">
         <is>
-          <t>6 to 9 years</t>
+          <t>06 to 09 years</t>
         </is>
       </c>
       <c r="AC74" t="inlineStr">
@@ -13427,7 +13427,7 @@
       </c>
       <c r="AB77" t="inlineStr">
         <is>
-          <t>6 to 9 years</t>
+          <t>06 to 09 years</t>
         </is>
       </c>
       <c r="AC77" t="inlineStr">
@@ -13591,7 +13591,7 @@
       </c>
       <c r="AB78" t="inlineStr">
         <is>
-          <t>6 to 9 years</t>
+          <t>06 to 09 years</t>
         </is>
       </c>
       <c r="AC78" t="inlineStr">
@@ -13751,7 +13751,7 @@
       </c>
       <c r="AB79" t="inlineStr">
         <is>
-          <t>6 to 9 years</t>
+          <t>06 to 09 years</t>
         </is>
       </c>
       <c r="AC79" t="inlineStr">
@@ -13915,7 +13915,7 @@
       </c>
       <c r="AB80" t="inlineStr">
         <is>
-          <t>6 to 9 years</t>
+          <t>06 to 09 years</t>
         </is>
       </c>
       <c r="AC80" t="inlineStr">
@@ -14079,7 +14079,7 @@
       </c>
       <c r="AB81" t="inlineStr">
         <is>
-          <t>6 to 9 years</t>
+          <t>06 to 09 years</t>
         </is>
       </c>
       <c r="AC81" t="inlineStr">
@@ -14243,7 +14243,7 @@
       </c>
       <c r="AB82" t="inlineStr">
         <is>
-          <t>6 to 9 years</t>
+          <t>06 to 09 years</t>
         </is>
       </c>
       <c r="AC82" t="inlineStr">
@@ -14407,7 +14407,7 @@
       </c>
       <c r="AB83" t="inlineStr">
         <is>
-          <t>6 to 9 years</t>
+          <t>06 to 09 years</t>
         </is>
       </c>
       <c r="AC83" t="inlineStr">
@@ -14899,7 +14899,7 @@
       </c>
       <c r="AB86" t="inlineStr">
         <is>
-          <t>6 to 9 years</t>
+          <t>06 to 09 years</t>
         </is>
       </c>
       <c r="AC86" t="inlineStr">
@@ -15563,7 +15563,7 @@
       </c>
       <c r="AB90" t="inlineStr">
         <is>
-          <t>6 to 9 years</t>
+          <t>06 to 09 years</t>
         </is>
       </c>
       <c r="AC90" t="inlineStr">
@@ -15731,7 +15731,7 @@
       </c>
       <c r="AB91" t="inlineStr">
         <is>
-          <t>6 to 9 years</t>
+          <t>06 to 09 years</t>
         </is>
       </c>
       <c r="AC91" t="inlineStr">
@@ -16751,7 +16751,7 @@
       </c>
       <c r="AB97" t="inlineStr">
         <is>
-          <t>6 to 9 years</t>
+          <t>06 to 09 years</t>
         </is>
       </c>
       <c r="AC97" t="inlineStr">
@@ -16923,7 +16923,7 @@
       </c>
       <c r="AB98" t="inlineStr">
         <is>
-          <t>6 to 9 years</t>
+          <t>06 to 09 years</t>
         </is>
       </c>
       <c r="AC98" t="inlineStr">
@@ -17091,7 +17091,7 @@
       </c>
       <c r="AB99" t="inlineStr">
         <is>
-          <t>&lt;5 years</t>
+          <t>02 to 05 years</t>
         </is>
       </c>
       <c r="AC99" t="inlineStr">
@@ -17259,7 +17259,7 @@
       </c>
       <c r="AB100" t="inlineStr">
         <is>
-          <t>6 to 9 years</t>
+          <t>06 to 09 years</t>
         </is>
       </c>
       <c r="AC100" t="inlineStr">
@@ -17599,7 +17599,7 @@
       </c>
       <c r="AB102" t="inlineStr">
         <is>
-          <t>6 to 9 years</t>
+          <t>06 to 09 years</t>
         </is>
       </c>
       <c r="AC102" t="inlineStr">
@@ -17935,7 +17935,7 @@
       </c>
       <c r="AB104" t="inlineStr">
         <is>
-          <t>6 to 9 years</t>
+          <t>06 to 09 years</t>
         </is>
       </c>
       <c r="AC104" t="inlineStr">
@@ -18279,7 +18279,7 @@
       </c>
       <c r="AB106" t="inlineStr">
         <is>
-          <t>6 to 9 years</t>
+          <t>06 to 09 years</t>
         </is>
       </c>
       <c r="AC106" t="inlineStr">
@@ -19119,7 +19119,7 @@
       </c>
       <c r="AB111" t="inlineStr">
         <is>
-          <t>6 to 9 years</t>
+          <t>06 to 09 years</t>
         </is>
       </c>
       <c r="AC111" t="inlineStr">
@@ -19631,7 +19631,7 @@
       </c>
       <c r="AB114" t="inlineStr">
         <is>
-          <t>6 to 9 years</t>
+          <t>06 to 09 years</t>
         </is>
       </c>
       <c r="AC114" t="inlineStr">
@@ -21483,7 +21483,7 @@
       </c>
       <c r="AB125" t="inlineStr">
         <is>
-          <t>6 to 9 years</t>
+          <t>06 to 09 years</t>
         </is>
       </c>
       <c r="AC125" t="inlineStr">
@@ -21823,7 +21823,7 @@
       </c>
       <c r="AB127" t="inlineStr">
         <is>
-          <t>6 to 9 years</t>
+          <t>06 to 09 years</t>
         </is>
       </c>
       <c r="AC127" t="inlineStr">
@@ -21995,7 +21995,7 @@
       </c>
       <c r="AB128" t="inlineStr">
         <is>
-          <t>6 to 9 years</t>
+          <t>06 to 09 years</t>
         </is>
       </c>
       <c r="AC128" t="inlineStr">
@@ -22675,7 +22675,7 @@
       </c>
       <c r="AB132" t="inlineStr">
         <is>
-          <t>6 to 9 years</t>
+          <t>06 to 09 years</t>
         </is>
       </c>
       <c r="AC132" t="inlineStr">
@@ -25559,7 +25559,7 @@
       </c>
       <c r="AB149" t="inlineStr">
         <is>
-          <t>&lt;5 years</t>
+          <t>02 to 05 years</t>
         </is>
       </c>
       <c r="AC149" t="inlineStr">
@@ -25727,7 +25727,7 @@
       </c>
       <c r="AB150" t="inlineStr">
         <is>
-          <t>&lt;5 years</t>
+          <t>02 to 05 years</t>
         </is>
       </c>
       <c r="AC150" t="inlineStr">
@@ -25895,7 +25895,7 @@
       </c>
       <c r="AB151" t="inlineStr">
         <is>
-          <t>6 to 9 years</t>
+          <t>06 to 09 years</t>
         </is>
       </c>
       <c r="AC151" t="inlineStr">
@@ -29287,7 +29287,7 @@
       </c>
       <c r="AB171" t="inlineStr">
         <is>
-          <t>&lt;5 years</t>
+          <t>02 to 05 years</t>
         </is>
       </c>
       <c r="AC171" t="inlineStr">
@@ -29963,7 +29963,7 @@
       </c>
       <c r="AB175" t="inlineStr">
         <is>
-          <t>&lt;5 years</t>
+          <t>02 to 05 years</t>
         </is>
       </c>
       <c r="AC175" t="inlineStr">
@@ -30639,7 +30639,7 @@
       </c>
       <c r="AB179" t="inlineStr">
         <is>
-          <t>6 to 9 years</t>
+          <t>06 to 09 years</t>
         </is>
       </c>
       <c r="AC179" t="inlineStr">
@@ -30803,7 +30803,7 @@
       </c>
       <c r="AB180" t="inlineStr">
         <is>
-          <t>6 to 9 years</t>
+          <t>06 to 09 years</t>
         </is>
       </c>
       <c r="AC180" t="inlineStr">
@@ -31639,7 +31639,7 @@
       </c>
       <c r="AB185" t="inlineStr">
         <is>
-          <t>&lt;5 years</t>
+          <t>02 to 05 years</t>
         </is>
       </c>
       <c r="AC185" t="inlineStr">
@@ -31803,7 +31803,7 @@
       </c>
       <c r="AB186" t="inlineStr">
         <is>
-          <t>6 to 9 years</t>
+          <t>06 to 09 years</t>
         </is>
       </c>
       <c r="AC186" t="inlineStr">
@@ -32139,7 +32139,7 @@
       </c>
       <c r="AB188" t="inlineStr">
         <is>
-          <t>6 to 9 years</t>
+          <t>06 to 09 years</t>
         </is>
       </c>
       <c r="AC188" t="inlineStr">
@@ -32471,7 +32471,7 @@
       </c>
       <c r="AB190" t="inlineStr">
         <is>
-          <t>&lt;5 years</t>
+          <t>02 to 05 years</t>
         </is>
       </c>
       <c r="AC190" t="inlineStr">
@@ -32807,7 +32807,7 @@
       </c>
       <c r="AB192" t="inlineStr">
         <is>
-          <t>6 to 9 years</t>
+          <t>06 to 09 years</t>
         </is>
       </c>
       <c r="AC192" t="inlineStr">
@@ -32975,7 +32975,7 @@
       </c>
       <c r="AB193" t="inlineStr">
         <is>
-          <t>6 to 9 years</t>
+          <t>06 to 09 years</t>
         </is>
       </c>
       <c r="AC193" t="inlineStr">
@@ -33143,7 +33143,7 @@
       </c>
       <c r="AB194" t="inlineStr">
         <is>
-          <t>6 to 9 years</t>
+          <t>06 to 09 years</t>
         </is>
       </c>
       <c r="AC194" t="inlineStr">
@@ -33311,7 +33311,7 @@
       </c>
       <c r="AB195" t="inlineStr">
         <is>
-          <t>6 to 9 years</t>
+          <t>06 to 09 years</t>
         </is>
       </c>
       <c r="AC195" t="inlineStr">
@@ -33479,7 +33479,7 @@
       </c>
       <c r="AB196" t="inlineStr">
         <is>
-          <t>6 to 9 years</t>
+          <t>06 to 09 years</t>
         </is>
       </c>
       <c r="AC196" t="inlineStr">

--- a/data/out/df_csv_condensed.xlsx
+++ b/data/out/df_csv_condensed.xlsx
@@ -23914,7 +23914,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">

--- a/data/out/df_csv_condensed.xlsx
+++ b/data/out/df_csv_condensed.xlsx
@@ -445,7 +445,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>[01.01] CTCAE</t>
+          <t>[01.01] CTCAE classification</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -555,7 +555,7 @@
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>[03.13.01] Stop or Break</t>
+          <t>[03.13.01] Suspension or termination of session</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
@@ -570,7 +570,7 @@
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>[03.14] Adaptations</t>
+          <t>[03.14] Adaptation</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>[05.04] Online</t>
+          <t>[05.04] Home (telemedicine)</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
@@ -620,7 +620,7 @@
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>[05.09] Training condition</t>
+          <t>[05.09] Fitness level</t>
         </is>
       </c>
     </row>
@@ -635,7 +635,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Already present</t>
+          <t>Pre-existing, aggravated</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -648,17 +648,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Nausea/Vomiting</t>
+          <t>Nausea/vomiting</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Physical strain|Medical therapy</t>
+          <t>Physical (Over)exertion|Medical treatment</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Internal medicine type</t>
+          <t>Internal organ</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>By medical professionals</t>
+          <t>Medical team</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -794,7 +794,7 @@
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>2. Time point</t>
+          <t>Second Half</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
@@ -814,7 +814,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -913,7 +913,7 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>Break</t>
+          <t>Suspension of session</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
@@ -973,7 +973,7 @@
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>1. Time point</t>
+          <t>First Half</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Already present</t>
+          <t>Pre-existing, aggravated</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1011,12 +1011,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Medical therapy</t>
+          <t>Medical treatment</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Internal medicine type</t>
+          <t>Internal organ</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1051,7 +1051,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>&lt;Unknown&gt;</t>
+          <t>(Unknown)</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>By nursing staff</t>
+          <t>Nursing team</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>Patients room</t>
+          <t>Patient room</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
@@ -1152,7 +1152,7 @@
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>2. Time point</t>
+          <t>Second Half</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
@@ -1172,7 +1172,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1185,17 +1185,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Nausea/Vomiting</t>
+          <t>Nausea/vomiting</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Physical strain|Medical therapy</t>
+          <t>Physical (Over)exertion|Medical treatment</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Internal medicine type</t>
+          <t>Internal organ</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>Break</t>
+          <t>Suspension of session</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>Patients room</t>
+          <t>Patient room</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>1. Time point</t>
+          <t>First Half</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Fall event</t>
+          <t>Fall-related incident</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>&lt;Unknown&gt;</t>
+          <t>(Unknown)</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>By medical professionals</t>
+          <t>Medical team</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
@@ -1450,7 +1450,7 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
@@ -1475,7 +1475,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Aftercare</t>
+          <t>Post-treatment care</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
@@ -1500,7 +1500,7 @@
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>Gym</t>
+          <t>Exercise room</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
@@ -1510,7 +1510,7 @@
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>1. Time point</t>
+          <t>First Half</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
@@ -1530,7 +1530,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Already present</t>
+          <t>Pre-existing, aggravated</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1548,7 +1548,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Physical strain</t>
+          <t>Physical (Over)exertion</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1608,7 +1608,7 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>By medical professionals</t>
+          <t>Medical team</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -1629,7 +1629,7 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>Break</t>
+          <t>Suspension of session</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
@@ -1679,7 +1679,7 @@
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>Gym</t>
+          <t>Exercise room</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
@@ -1689,7 +1689,7 @@
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>2. Time point</t>
+          <t>Second Half</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
@@ -1709,7 +1709,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Already present</t>
+          <t>Pre-existing, aggravated</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1722,17 +1722,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Nausea/Vomiting</t>
+          <t>Nausea/vomiting</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Physical strain|Medical therapy</t>
+          <t>Physical (Over)exertion|Medical treatment</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Internal medicine type</t>
+          <t>Internal organ</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1804,7 +1804,7 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>1. Time point</t>
+          <t>First Half</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
@@ -1884,7 +1884,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Already present</t>
+          <t>Pre-existing, aggravated</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1902,7 +1902,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Fall event</t>
+          <t>Fall-related incident</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
@@ -2043,7 +2043,7 @@
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>2. Time point</t>
+          <t>Second Half</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
@@ -2063,7 +2063,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2076,17 +2076,17 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Nausea/Vomiting</t>
+          <t>Nausea/vomiting</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Physical strain|Medical therapy</t>
+          <t>Physical (Over)exertion|Medical treatment</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Internal medicine type</t>
+          <t>Internal organ</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -2162,7 +2162,7 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
@@ -2212,7 +2212,7 @@
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>Patients room</t>
+          <t>Patient room</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>2. Time point</t>
+          <t>Second Half</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
@@ -2242,7 +2242,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2255,12 +2255,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Pain|Soft tissue/injury</t>
+          <t>Pain|Soft-tissue injury</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Fall event</t>
+          <t>Fall-related incident</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -2341,7 +2341,7 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>Break</t>
+          <t>Suspension of session</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
@@ -2366,7 +2366,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>Aftercare</t>
+          <t>Post-treatment care</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
@@ -2391,7 +2391,7 @@
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>Gym</t>
+          <t>Exercise room</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
@@ -2401,7 +2401,7 @@
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>2. Time point</t>
+          <t>Second Half</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
@@ -2421,7 +2421,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2439,7 +2439,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Physical strain|Psychological strain</t>
+          <t>Physical (Over)exertion|Psychological stress</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -2520,7 +2520,7 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
@@ -2545,7 +2545,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>Aftercare</t>
+          <t>Post-treatment care</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
@@ -2580,7 +2580,7 @@
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>2. Time point</t>
+          <t>Second Half</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
@@ -2600,7 +2600,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2618,7 +2618,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Physical strain</t>
+          <t>Physical (Over)exertion</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -2699,7 +2699,7 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>Break</t>
+          <t>Suspension of session</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
@@ -2724,7 +2724,7 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>Aftercare</t>
+          <t>Post-treatment care</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
@@ -2759,7 +2759,7 @@
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>2. Time point</t>
+          <t>Second Half</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
@@ -2779,7 +2779,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2797,7 +2797,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Fall event|Coordination problems</t>
+          <t>Fall-related incident|Coordination problems</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -2878,7 +2878,7 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>Break</t>
+          <t>Suspension of session</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
@@ -2928,7 +2928,7 @@
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>Outside</t>
+          <t>Outdoors</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
@@ -2938,7 +2938,7 @@
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>2. Time point</t>
+          <t>Second Half</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
@@ -2958,7 +2958,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -3057,7 +3057,7 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>Break</t>
+          <t>Suspension of session</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
@@ -3117,7 +3117,7 @@
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>1. Time point</t>
+          <t>First Half</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
@@ -3137,7 +3137,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -3155,7 +3155,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Physical strain</t>
+          <t>Physical (Over)exertion</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -3236,7 +3236,7 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>Break</t>
+          <t>Suspension of session</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
@@ -3296,7 +3296,7 @@
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>1. Time point</t>
+          <t>First Half</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
@@ -3316,7 +3316,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -3334,7 +3334,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Medical therapy</t>
+          <t>Medical treatment</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -3415,7 +3415,7 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
@@ -3440,7 +3440,7 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>Aftercare</t>
+          <t>Post-treatment care</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
@@ -3475,7 +3475,7 @@
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>2. Time point</t>
+          <t>Second Half</t>
         </is>
       </c>
       <c r="AK17" t="inlineStr">
@@ -3495,7 +3495,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -3513,12 +3513,12 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Physical strain|Medical therapy</t>
+          <t>Physical (Over)exertion|Medical treatment</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Internal medicine type</t>
+          <t>Internal organ</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -3590,7 +3590,7 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>Gym</t>
+          <t>Exercise room</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
@@ -3650,7 +3650,7 @@
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>2. Time point</t>
+          <t>Second Half</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
@@ -3670,7 +3670,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Physical strain|Medical therapy</t>
+          <t>Physical (Over)exertion|Medical treatment</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>Break</t>
+          <t>Suspension of session</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
@@ -3819,7 +3819,7 @@
       </c>
       <c r="AH19" t="inlineStr">
         <is>
-          <t>Patients room</t>
+          <t>Patient room</t>
         </is>
       </c>
       <c r="AI19" t="inlineStr">
@@ -3829,12 +3829,12 @@
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>2. Time point</t>
+          <t>Second Half</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>&lt;Unknown&gt;</t>
+          <t>(Unknown)</t>
         </is>
       </c>
     </row>
@@ -3849,7 +3849,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -3867,7 +3867,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Physical strain|Medical therapy</t>
+          <t>Physical (Over)exertion|Medical treatment</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -3948,7 +3948,7 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>Break</t>
+          <t>Suspension of session</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
@@ -3998,7 +3998,7 @@
       </c>
       <c r="AH20" t="inlineStr">
         <is>
-          <t>Gym</t>
+          <t>Exercise room</t>
         </is>
       </c>
       <c r="AI20" t="inlineStr">
@@ -4008,7 +4008,7 @@
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
-          <t>1. Time point</t>
+          <t>First Half</t>
         </is>
       </c>
       <c r="AK20" t="inlineStr">
@@ -4028,7 +4028,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -4046,7 +4046,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Physical strain|Psychological strain|Medical therapy</t>
+          <t>Physical (Over)exertion|Psychological stress|Medical treatment</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -4177,7 +4177,7 @@
       </c>
       <c r="AH21" t="inlineStr">
         <is>
-          <t>Gym</t>
+          <t>Exercise room</t>
         </is>
       </c>
       <c r="AI21" t="inlineStr">
@@ -4187,7 +4187,7 @@
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>2. Time point</t>
+          <t>Second Half</t>
         </is>
       </c>
       <c r="AK21" t="inlineStr">
@@ -4207,7 +4207,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Already present</t>
+          <t>Pre-existing, aggravated</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -4225,12 +4225,12 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Physical strain</t>
+          <t>Physical (Over)exertion</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Internal medicine type</t>
+          <t>Internal organ</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -4265,7 +4265,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>&lt;Unknown&gt;</t>
+          <t>(Unknown)</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -4306,7 +4306,7 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>Break</t>
+          <t>Suspension of session</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
@@ -4356,17 +4356,17 @@
       </c>
       <c r="AH22" t="inlineStr">
         <is>
-          <t>Gym</t>
+          <t>Exercise room</t>
         </is>
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>Full body</t>
+          <t>Multimodal</t>
         </is>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>1. Time point</t>
+          <t>First Half</t>
         </is>
       </c>
       <c r="AK22" t="inlineStr">
@@ -4386,7 +4386,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -4404,7 +4404,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Fall event|Environmental conditions</t>
+          <t>Fall-related incident|Environmental conditions</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -4545,7 +4545,7 @@
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
-          <t>2. Time point</t>
+          <t>Second Half</t>
         </is>
       </c>
       <c r="AK23" t="inlineStr">
@@ -4565,7 +4565,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Already present</t>
+          <t>Pre-existing, aggravated</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -4583,7 +4583,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Physical strain</t>
+          <t>Physical (Over)exertion</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -4664,7 +4664,7 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>Break</t>
+          <t>Suspension of session</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
@@ -4714,7 +4714,7 @@
       </c>
       <c r="AH24" t="inlineStr">
         <is>
-          <t>Gym</t>
+          <t>Exercise room</t>
         </is>
       </c>
       <c r="AI24" t="inlineStr">
@@ -4724,12 +4724,12 @@
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
-          <t>1. Time point</t>
+          <t>First Half</t>
         </is>
       </c>
       <c r="AK24" t="inlineStr">
         <is>
-          <t>&lt;Unknown&gt;</t>
+          <t>(Unknown)</t>
         </is>
       </c>
     </row>
@@ -4744,7 +4744,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -4757,17 +4757,17 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Pain|Schmerzhafter Spontaneous painful bowel movement</t>
+          <t>Pain|Spontaneous painful bowel movement</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Physical strain|Medical therapy</t>
+          <t>Physical (Over)exertion|Medical treatment</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Abdomen|Intestine</t>
+          <t>Abdomen|Bowel</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -4843,7 +4843,7 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
@@ -4893,7 +4893,7 @@
       </c>
       <c r="AH25" t="inlineStr">
         <is>
-          <t>Patients room</t>
+          <t>Patient room</t>
         </is>
       </c>
       <c r="AI25" t="inlineStr">
@@ -4903,12 +4903,12 @@
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
-          <t>1. Time point</t>
+          <t>First Half</t>
         </is>
       </c>
       <c r="AK25" t="inlineStr">
         <is>
-          <t>&lt;Unknown&gt;</t>
+          <t>(Unknown)</t>
         </is>
       </c>
     </row>
@@ -4923,7 +4923,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Already present</t>
+          <t>Pre-existing, aggravated</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -4941,7 +4941,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Physical strain|Medical therapy</t>
+          <t>Physical (Over)exertion|Medical treatment</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -5022,7 +5022,7 @@
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>Break</t>
+          <t>Suspension of session</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
@@ -5072,7 +5072,7 @@
       </c>
       <c r="AH26" t="inlineStr">
         <is>
-          <t>Patients room</t>
+          <t>Patient room</t>
         </is>
       </c>
       <c r="AI26" t="inlineStr">
@@ -5082,7 +5082,7 @@
       </c>
       <c r="AJ26" t="inlineStr">
         <is>
-          <t>1. Time point</t>
+          <t>First Half</t>
         </is>
       </c>
       <c r="AK26" t="inlineStr">
@@ -5102,7 +5102,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -5201,7 +5201,7 @@
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>Break</t>
+          <t>Suspension of session</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AH27" t="inlineStr">
         <is>
-          <t>Gym</t>
+          <t>Exercise room</t>
         </is>
       </c>
       <c r="AI27" t="inlineStr">
@@ -5261,7 +5261,7 @@
       </c>
       <c r="AJ27" t="inlineStr">
         <is>
-          <t>1. Time point</t>
+          <t>First Half</t>
         </is>
       </c>
       <c r="AK27" t="inlineStr">
@@ -5281,7 +5281,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -5299,12 +5299,12 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Physical strain|Medical therapy</t>
+          <t>Physical (Over)exertion|Medical treatment</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Internal medicine type</t>
+          <t>Internal organ</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -5380,7 +5380,7 @@
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>Break</t>
+          <t>Suspension of session</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
@@ -5430,7 +5430,7 @@
       </c>
       <c r="AH28" t="inlineStr">
         <is>
-          <t>Patients room</t>
+          <t>Patient room</t>
         </is>
       </c>
       <c r="AI28" t="inlineStr">
@@ -5440,7 +5440,7 @@
       </c>
       <c r="AJ28" t="inlineStr">
         <is>
-          <t>1. Time point</t>
+          <t>First Half</t>
         </is>
       </c>
       <c r="AK28" t="inlineStr">
@@ -5460,7 +5460,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Already present</t>
+          <t>Pre-existing, aggravated</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -5478,7 +5478,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Physical strain</t>
+          <t>Physical (Over)exertion</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -5609,7 +5609,7 @@
       </c>
       <c r="AH29" t="inlineStr">
         <is>
-          <t>Gym</t>
+          <t>Exercise room</t>
         </is>
       </c>
       <c r="AI29" t="inlineStr">
@@ -5619,7 +5619,7 @@
       </c>
       <c r="AJ29" t="inlineStr">
         <is>
-          <t>2. Time point</t>
+          <t>Second Half</t>
         </is>
       </c>
       <c r="AK29" t="inlineStr">
@@ -5639,7 +5639,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Already present</t>
+          <t>Pre-existing, aggravated</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -5657,12 +5657,12 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Psychological strain</t>
+          <t>Psychological stress</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Internal medicine type</t>
+          <t>Internal organ</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -5738,7 +5738,7 @@
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
@@ -5798,7 +5798,7 @@
       </c>
       <c r="AJ30" t="inlineStr">
         <is>
-          <t>1. Time point</t>
+          <t>First Half</t>
         </is>
       </c>
       <c r="AK30" t="inlineStr">
@@ -5818,7 +5818,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -5836,12 +5836,12 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Physical strain</t>
+          <t>Physical (Over)exertion</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Internal medicine type</t>
+          <t>Internal organ</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -5917,7 +5917,7 @@
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
@@ -5967,7 +5967,7 @@
       </c>
       <c r="AH31" t="inlineStr">
         <is>
-          <t>Gym</t>
+          <t>Exercise room</t>
         </is>
       </c>
       <c r="AI31" t="inlineStr">
@@ -5977,7 +5977,7 @@
       </c>
       <c r="AJ31" t="inlineStr">
         <is>
-          <t>2. Time point</t>
+          <t>Second Half</t>
         </is>
       </c>
       <c r="AK31" t="inlineStr">
@@ -5997,7 +5997,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -6015,12 +6015,12 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Physical strain|Psychological strain</t>
+          <t>Physical (Over)exertion|Psychological stress</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Internal medicine type</t>
+          <t>Internal organ</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -6096,7 +6096,7 @@
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
@@ -6146,7 +6146,7 @@
       </c>
       <c r="AH32" t="inlineStr">
         <is>
-          <t>Gym</t>
+          <t>Exercise room</t>
         </is>
       </c>
       <c r="AI32" t="inlineStr">
@@ -6156,7 +6156,7 @@
       </c>
       <c r="AJ32" t="inlineStr">
         <is>
-          <t>1. Time point</t>
+          <t>First Half</t>
         </is>
       </c>
       <c r="AK32" t="inlineStr">
@@ -6176,7 +6176,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -6189,17 +6189,17 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Nausea/Vomiting</t>
+          <t>Nausea/vomiting</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Physical strain|Medical therapy</t>
+          <t>Physical (Over)exertion|Medical treatment</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Internal medicine type</t>
+          <t>Internal organ</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -6275,7 +6275,7 @@
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
@@ -6335,7 +6335,7 @@
       </c>
       <c r="AJ33" t="inlineStr">
         <is>
-          <t>1. Time point</t>
+          <t>First Half</t>
         </is>
       </c>
       <c r="AK33" t="inlineStr">
@@ -6355,7 +6355,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -6373,7 +6373,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Colliding</t>
+          <t>Collision</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -6454,7 +6454,7 @@
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
@@ -6514,7 +6514,7 @@
       </c>
       <c r="AJ34" t="inlineStr">
         <is>
-          <t>2. Time point</t>
+          <t>Second Half</t>
         </is>
       </c>
       <c r="AK34" t="inlineStr">
@@ -6534,7 +6534,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -6552,12 +6552,12 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Physical strain|Medical therapy</t>
+          <t>Physical (Over)exertion|Medical treatment</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Internal medicine type</t>
+          <t>Internal organ</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -6572,7 +6572,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>&lt;Unknown&gt;</t>
+          <t>(Unknown)</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -6612,7 +6612,7 @@
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>By nursing staff</t>
+          <t>Nursing team</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
@@ -6633,7 +6633,7 @@
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
@@ -6683,7 +6683,7 @@
       </c>
       <c r="AH35" t="inlineStr">
         <is>
-          <t>Patients room</t>
+          <t>Patient room</t>
         </is>
       </c>
       <c r="AI35" t="inlineStr">
@@ -6693,7 +6693,7 @@
       </c>
       <c r="AJ35" t="inlineStr">
         <is>
-          <t>2. Time point</t>
+          <t>Second Half</t>
         </is>
       </c>
       <c r="AK35" t="inlineStr">
@@ -6713,7 +6713,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Already present</t>
+          <t>Pre-existing, aggravated</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -6731,7 +6731,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Medical therapy</t>
+          <t>Medical treatment</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -6751,7 +6751,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>&lt;Unknown&gt;</t>
+          <t>(Unknown)</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -6812,7 +6812,7 @@
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>Break</t>
+          <t>Suspension of session</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
@@ -6872,7 +6872,7 @@
       </c>
       <c r="AJ36" t="inlineStr">
         <is>
-          <t>2. Time point</t>
+          <t>Second Half</t>
         </is>
       </c>
       <c r="AK36" t="inlineStr">
@@ -6892,7 +6892,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -6910,7 +6910,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Colliding</t>
+          <t>Collision</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -6991,7 +6991,7 @@
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>Break</t>
+          <t>Suspension of session</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
@@ -7041,7 +7041,7 @@
       </c>
       <c r="AH37" t="inlineStr">
         <is>
-          <t>Patients room</t>
+          <t>Patient room</t>
         </is>
       </c>
       <c r="AI37" t="inlineStr">
@@ -7051,7 +7051,7 @@
       </c>
       <c r="AJ37" t="inlineStr">
         <is>
-          <t>1. Time point</t>
+          <t>First Half</t>
         </is>
       </c>
       <c r="AK37" t="inlineStr">
@@ -7071,7 +7071,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Already present</t>
+          <t>Pre-existing, aggravated</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -7089,7 +7089,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Physical strain|Medical therapy</t>
+          <t>Physical (Over)exertion|Medical treatment</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -7129,7 +7129,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>&lt;Unknown&gt;</t>
+          <t>(Unknown)</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -7170,7 +7170,7 @@
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
@@ -7220,7 +7220,7 @@
       </c>
       <c r="AH38" t="inlineStr">
         <is>
-          <t>Patients room</t>
+          <t>Patient room</t>
         </is>
       </c>
       <c r="AI38" t="inlineStr">
@@ -7230,7 +7230,7 @@
       </c>
       <c r="AJ38" t="inlineStr">
         <is>
-          <t>1. Time point</t>
+          <t>First Half</t>
         </is>
       </c>
       <c r="AK38" t="inlineStr">
@@ -7250,7 +7250,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -7268,12 +7268,12 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Physical strain</t>
+          <t>Physical (Over)exertion</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Internal medicine type</t>
+          <t>Internal organ</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -7324,7 +7324,7 @@
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>By medical professionals</t>
+          <t>Medical team</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
@@ -7345,7 +7345,7 @@
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
@@ -7395,7 +7395,7 @@
       </c>
       <c r="AH39" t="inlineStr">
         <is>
-          <t>Gym</t>
+          <t>Exercise room</t>
         </is>
       </c>
       <c r="AI39" t="inlineStr">
@@ -7405,7 +7405,7 @@
       </c>
       <c r="AJ39" t="inlineStr">
         <is>
-          <t>2. Time point</t>
+          <t>Second Half</t>
         </is>
       </c>
       <c r="AK39" t="inlineStr">
@@ -7425,7 +7425,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -7443,7 +7443,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Physical strain|Psychological strain|Medical therapy</t>
+          <t>Physical (Over)exertion|Psychological stress|Medical treatment</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -7524,7 +7524,7 @@
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
@@ -7584,7 +7584,7 @@
       </c>
       <c r="AJ40" t="inlineStr">
         <is>
-          <t>1. Time point</t>
+          <t>First Half</t>
         </is>
       </c>
       <c r="AK40" t="inlineStr">
@@ -7604,7 +7604,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -7622,7 +7622,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Fall event</t>
+          <t>Fall-related incident</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -7703,7 +7703,7 @@
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>Break</t>
+          <t>Suspension of session</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
@@ -7763,7 +7763,7 @@
       </c>
       <c r="AJ41" t="inlineStr">
         <is>
-          <t>2. Time point</t>
+          <t>Second Half</t>
         </is>
       </c>
       <c r="AK41" t="inlineStr">
@@ -7783,7 +7783,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -7796,17 +7796,17 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Circulatory problems|Severe exhaustion</t>
+          <t>Circulatory problems|Physical (Over)exertion</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Physical strain|Medical therapy</t>
+          <t>Physical (Over)exertion|Medical treatment</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Full body|Internal medicine type</t>
+          <t>Full body|Internal organ</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -7821,7 +7821,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>&lt;Unknown&gt;</t>
+          <t>(Unknown)</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -7882,7 +7882,7 @@
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
@@ -7932,7 +7932,7 @@
       </c>
       <c r="AH42" t="inlineStr">
         <is>
-          <t>Patients room</t>
+          <t>Patient room</t>
         </is>
       </c>
       <c r="AI42" t="inlineStr">
@@ -7942,7 +7942,7 @@
       </c>
       <c r="AJ42" t="inlineStr">
         <is>
-          <t>1. Time point</t>
+          <t>First Half</t>
         </is>
       </c>
       <c r="AK42" t="inlineStr">
@@ -7962,7 +7962,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -8020,7 +8020,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>&lt;Unknown&gt;</t>
+          <t>(Unknown)</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -8040,7 +8040,7 @@
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>By medical professionals</t>
+          <t>Medical team</t>
         </is>
       </c>
       <c r="T43" t="inlineStr">
@@ -8061,7 +8061,7 @@
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>Break</t>
+          <t>Suspension of session</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
@@ -8111,7 +8111,7 @@
       </c>
       <c r="AH43" t="inlineStr">
         <is>
-          <t>Patients room</t>
+          <t>Patient room</t>
         </is>
       </c>
       <c r="AI43" t="inlineStr">
@@ -8121,7 +8121,7 @@
       </c>
       <c r="AJ43" t="inlineStr">
         <is>
-          <t>2. Time point</t>
+          <t>Second Half</t>
         </is>
       </c>
       <c r="AK43" t="inlineStr">
@@ -8141,7 +8141,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Already present</t>
+          <t>Pre-existing, aggravated</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -8154,17 +8154,17 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Nausea/Vomiting|Coughing fit</t>
+          <t>Nausea/vomiting|Coughing fit</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Physical strain|Medical therapy</t>
+          <t>Physical (Over)exertion|Medical treatment</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Internal medicine type</t>
+          <t>Internal organ</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -8240,7 +8240,7 @@
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
@@ -8290,7 +8290,7 @@
       </c>
       <c r="AH44" t="inlineStr">
         <is>
-          <t>Patients room</t>
+          <t>Patient room</t>
         </is>
       </c>
       <c r="AI44" t="inlineStr">
@@ -8300,7 +8300,7 @@
       </c>
       <c r="AJ44" t="inlineStr">
         <is>
-          <t>1. Time point</t>
+          <t>First Half</t>
         </is>
       </c>
       <c r="AK44" t="inlineStr">
@@ -8320,7 +8320,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -8333,17 +8333,17 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Nausea/Vomiting</t>
+          <t>Nausea/vomiting</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Physical strain|Medical therapy</t>
+          <t>Physical (Over)exertion|Medical treatment</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Internal medicine type</t>
+          <t>Internal organ</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -8419,7 +8419,7 @@
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>Break</t>
+          <t>Suspension of session</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
@@ -8479,7 +8479,7 @@
       </c>
       <c r="AJ45" t="inlineStr">
         <is>
-          <t>2. Time point</t>
+          <t>Second Half</t>
         </is>
       </c>
       <c r="AK45" t="inlineStr">
@@ -8499,7 +8499,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -8512,17 +8512,17 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Severe exhaustion</t>
+          <t>Physical (Over)exertion</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Physical strain|Medical therapy</t>
+          <t>Physical (Over)exertion|Medical treatment</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Internal medicine type</t>
+          <t>Internal organ</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -8598,7 +8598,7 @@
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr">
@@ -8658,7 +8658,7 @@
       </c>
       <c r="AJ46" t="inlineStr">
         <is>
-          <t>1. Time point</t>
+          <t>First Half</t>
         </is>
       </c>
       <c r="AK46" t="inlineStr">
@@ -8678,7 +8678,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -8691,17 +8691,17 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Nausea/Vomiting|Circulatory problems|Psychological stress reaction</t>
+          <t>Nausea/vomiting|Circulatory problems|Psychological stress reaction</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Psychological strain|Medical therapy</t>
+          <t>Psychological stress|Medical treatment</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Internal medicine type</t>
+          <t>Internal organ</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -8777,7 +8777,7 @@
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
@@ -8827,7 +8827,7 @@
       </c>
       <c r="AH47" t="inlineStr">
         <is>
-          <t>Patients room</t>
+          <t>Patient room</t>
         </is>
       </c>
       <c r="AI47" t="inlineStr">
@@ -8837,7 +8837,7 @@
       </c>
       <c r="AJ47" t="inlineStr">
         <is>
-          <t>1. Time point</t>
+          <t>First Half</t>
         </is>
       </c>
       <c r="AK47" t="inlineStr">
@@ -8857,7 +8857,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -8875,7 +8875,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Physical strain|Coordination problems</t>
+          <t>Physical (Over)exertion|Coordination problems</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -8935,7 +8935,7 @@
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>By medical professionals</t>
+          <t>Medical team</t>
         </is>
       </c>
       <c r="T48" t="inlineStr">
@@ -8956,7 +8956,7 @@
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
@@ -8981,7 +8981,7 @@
       </c>
       <c r="AC48" t="inlineStr">
         <is>
-          <t>Aftercare</t>
+          <t>Post-treatment care</t>
         </is>
       </c>
       <c r="AD48" t="inlineStr">
@@ -9006,7 +9006,7 @@
       </c>
       <c r="AH48" t="inlineStr">
         <is>
-          <t>Outside</t>
+          <t>Outdoors</t>
         </is>
       </c>
       <c r="AI48" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="AJ48" t="inlineStr">
         <is>
-          <t>1. Time point</t>
+          <t>First Half</t>
         </is>
       </c>
       <c r="AK48" t="inlineStr">
@@ -9036,7 +9036,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -9049,12 +9049,12 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Soft tissue/injury</t>
+          <t>Soft-tissue injury</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Fall event|Physical strain</t>
+          <t>Fall-related incident|Physical (Over)exertion</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -9114,7 +9114,7 @@
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>By medical professionals</t>
+          <t>Medical team</t>
         </is>
       </c>
       <c r="T49" t="inlineStr">
@@ -9135,7 +9135,7 @@
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>Break</t>
+          <t>Suspension of session</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
@@ -9185,7 +9185,7 @@
       </c>
       <c r="AH49" t="inlineStr">
         <is>
-          <t>Outside</t>
+          <t>Outdoors</t>
         </is>
       </c>
       <c r="AI49" t="inlineStr">
@@ -9195,7 +9195,7 @@
       </c>
       <c r="AJ49" t="inlineStr">
         <is>
-          <t>2. Time point</t>
+          <t>Second Half</t>
         </is>
       </c>
       <c r="AK49" t="inlineStr">
@@ -9215,7 +9215,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -9233,7 +9233,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Fall event|Coordination problems</t>
+          <t>Fall-related incident|Coordination problems</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -9339,7 +9339,7 @@
       </c>
       <c r="AC50" t="inlineStr">
         <is>
-          <t>Aftercare</t>
+          <t>Post-treatment care</t>
         </is>
       </c>
       <c r="AD50" t="inlineStr">
@@ -9364,7 +9364,7 @@
       </c>
       <c r="AH50" t="inlineStr">
         <is>
-          <t>Outside</t>
+          <t>Outdoors</t>
         </is>
       </c>
       <c r="AI50" t="inlineStr">
@@ -9374,7 +9374,7 @@
       </c>
       <c r="AJ50" t="inlineStr">
         <is>
-          <t>1. Time point</t>
+          <t>First Half</t>
         </is>
       </c>
       <c r="AK50" t="inlineStr">
@@ -9394,7 +9394,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -9407,12 +9407,12 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Soft tissue/injury</t>
+          <t>Soft-tissue injury</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Fall event|Physical strain|Coordination problems</t>
+          <t>Fall-related incident|Physical (Over)exertion|Coordination problems</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -9472,7 +9472,7 @@
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>By medical professionals</t>
+          <t>Medical team</t>
         </is>
       </c>
       <c r="T51" t="inlineStr">
@@ -9493,7 +9493,7 @@
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>Break</t>
+          <t>Suspension of session</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr">
@@ -9518,7 +9518,7 @@
       </c>
       <c r="AC51" t="inlineStr">
         <is>
-          <t>Aftercare</t>
+          <t>Post-treatment care</t>
         </is>
       </c>
       <c r="AD51" t="inlineStr">
@@ -9543,7 +9543,7 @@
       </c>
       <c r="AH51" t="inlineStr">
         <is>
-          <t>Outside</t>
+          <t>Outdoors</t>
         </is>
       </c>
       <c r="AI51" t="inlineStr">
@@ -9553,7 +9553,7 @@
       </c>
       <c r="AJ51" t="inlineStr">
         <is>
-          <t>2. Time point</t>
+          <t>Second Half</t>
         </is>
       </c>
       <c r="AK51" t="inlineStr">
@@ -9573,7 +9573,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -9591,12 +9591,12 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Physical strain|Medical therapy</t>
+          <t>Physical (Over)exertion|Medical treatment</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Internal medicine type</t>
+          <t>Internal organ</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -9651,7 +9651,7 @@
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>By medical professionals</t>
+          <t>Medical team</t>
         </is>
       </c>
       <c r="T52" t="inlineStr">
@@ -9672,7 +9672,7 @@
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y52" t="inlineStr">
@@ -9732,7 +9732,7 @@
       </c>
       <c r="AJ52" t="inlineStr">
         <is>
-          <t>1. Time point</t>
+          <t>First Half</t>
         </is>
       </c>
       <c r="AK52" t="inlineStr">
@@ -9752,7 +9752,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -9770,7 +9770,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Physical strain|Coordination problems</t>
+          <t>Physical (Over)exertion|Coordination problems</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -9851,7 +9851,7 @@
       </c>
       <c r="X53" t="inlineStr">
         <is>
-          <t>Break</t>
+          <t>Suspension of session</t>
         </is>
       </c>
       <c r="Y53" t="inlineStr">
@@ -9901,7 +9901,7 @@
       </c>
       <c r="AH53" t="inlineStr">
         <is>
-          <t>Patients room</t>
+          <t>Patient room</t>
         </is>
       </c>
       <c r="AI53" t="inlineStr">
@@ -9911,7 +9911,7 @@
       </c>
       <c r="AJ53" t="inlineStr">
         <is>
-          <t>1. Time point</t>
+          <t>First Half</t>
         </is>
       </c>
       <c r="AK53" t="inlineStr">
@@ -9931,7 +9931,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -9944,12 +9944,12 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Pain|Soft tissue/injury</t>
+          <t>Pain|Soft-tissue injury</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Fall event|Coordination problems</t>
+          <t>Fall-related incident|Coordination problems</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -10026,7 +10026,7 @@
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>Break</t>
+          <t>Suspension of session</t>
         </is>
       </c>
       <c r="Y54" t="inlineStr">
@@ -10051,7 +10051,7 @@
       </c>
       <c r="AC54" t="inlineStr">
         <is>
-          <t>Aftercare</t>
+          <t>Post-treatment care</t>
         </is>
       </c>
       <c r="AD54" t="inlineStr">
@@ -10076,7 +10076,7 @@
       </c>
       <c r="AH54" t="inlineStr">
         <is>
-          <t>Gym</t>
+          <t>Exercise room</t>
         </is>
       </c>
       <c r="AI54" t="inlineStr">
@@ -10086,7 +10086,7 @@
       </c>
       <c r="AJ54" t="inlineStr">
         <is>
-          <t>2. Time point</t>
+          <t>Second Half</t>
         </is>
       </c>
       <c r="AK54" t="inlineStr">
@@ -10106,7 +10106,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Already present</t>
+          <t>Pre-existing, aggravated</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -10119,12 +10119,12 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Soft tissue/injury</t>
+          <t>Soft-tissue injury</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Medical therapy|Colliding</t>
+          <t>Medical treatment|Collision</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -10255,7 +10255,7 @@
       </c>
       <c r="AH55" t="inlineStr">
         <is>
-          <t>Patients room</t>
+          <t>Patient room</t>
         </is>
       </c>
       <c r="AI55" t="inlineStr">
@@ -10265,7 +10265,7 @@
       </c>
       <c r="AJ55" t="inlineStr">
         <is>
-          <t>2. Time point</t>
+          <t>Second Half</t>
         </is>
       </c>
       <c r="AK55" t="inlineStr">
@@ -10285,7 +10285,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -10303,7 +10303,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Fall event|Medical therapy</t>
+          <t>Fall-related incident|Medical treatment</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -10384,7 +10384,7 @@
       </c>
       <c r="X56" t="inlineStr">
         <is>
-          <t>Break</t>
+          <t>Suspension of session</t>
         </is>
       </c>
       <c r="Y56" t="inlineStr">
@@ -10444,7 +10444,7 @@
       </c>
       <c r="AJ56" t="inlineStr">
         <is>
-          <t>2. Time point</t>
+          <t>Second Half</t>
         </is>
       </c>
       <c r="AK56" t="inlineStr">
@@ -10464,7 +10464,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Already present</t>
+          <t>Pre-existing, aggravated</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -10477,17 +10477,17 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Nausea/Vomiting</t>
+          <t>Nausea/vomiting</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Physical strain|Medical therapy</t>
+          <t>Physical (Over)exertion|Medical treatment</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Internal medicine type</t>
+          <t>Internal organ</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -10563,7 +10563,7 @@
       </c>
       <c r="X57" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y57" t="inlineStr">
@@ -10613,7 +10613,7 @@
       </c>
       <c r="AH57" t="inlineStr">
         <is>
-          <t>Patients room</t>
+          <t>Patient room</t>
         </is>
       </c>
       <c r="AI57" t="inlineStr">
@@ -10623,7 +10623,7 @@
       </c>
       <c r="AJ57" t="inlineStr">
         <is>
-          <t>2. Time point</t>
+          <t>Second Half</t>
         </is>
       </c>
       <c r="AK57" t="inlineStr">
@@ -10643,7 +10643,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Already present</t>
+          <t>Pre-existing, aggravated</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -10661,12 +10661,12 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Physical strain</t>
+          <t>Physical (Over)exertion</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Internal medicine type</t>
+          <t>Internal organ</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -10701,7 +10701,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>&lt;Unknown&gt;</t>
+          <t>(Unknown)</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
@@ -10721,7 +10721,7 @@
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>By parents</t>
+          <t>Parents</t>
         </is>
       </c>
       <c r="T58" t="inlineStr">
@@ -10742,7 +10742,7 @@
       </c>
       <c r="X58" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y58" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="AH58" t="inlineStr">
         <is>
-          <t>Patients room</t>
+          <t>Patient room</t>
         </is>
       </c>
       <c r="AI58" t="inlineStr">
@@ -10802,7 +10802,7 @@
       </c>
       <c r="AJ58" t="inlineStr">
         <is>
-          <t>2. Time point</t>
+          <t>Second Half</t>
         </is>
       </c>
       <c r="AK58" t="inlineStr">
@@ -10822,7 +10822,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Medical therapy|Other</t>
+          <t>Medical treatment|Other</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -10880,7 +10880,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>&lt;Unknown&gt;</t>
+          <t>(Unknown)</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
@@ -10900,7 +10900,7 @@
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>By parents</t>
+          <t>Parents</t>
         </is>
       </c>
       <c r="T59" t="inlineStr">
@@ -10971,7 +10971,7 @@
       </c>
       <c r="AH59" t="inlineStr">
         <is>
-          <t>Gym</t>
+          <t>Exercise room</t>
         </is>
       </c>
       <c r="AI59" t="inlineStr">
@@ -10981,7 +10981,7 @@
       </c>
       <c r="AJ59" t="inlineStr">
         <is>
-          <t>2. Time point</t>
+          <t>Second Half</t>
         </is>
       </c>
       <c r="AK59" t="inlineStr">
@@ -11001,7 +11001,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -11019,7 +11019,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Physical strain|Colliding</t>
+          <t>Physical (Over)exertion|Collision</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -11079,7 +11079,7 @@
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>By nursing staff</t>
+          <t>Nursing team</t>
         </is>
       </c>
       <c r="T60" t="inlineStr">
@@ -11100,7 +11100,7 @@
       </c>
       <c r="X60" t="inlineStr">
         <is>
-          <t>Break</t>
+          <t>Suspension of session</t>
         </is>
       </c>
       <c r="Y60" t="inlineStr">
@@ -11150,7 +11150,7 @@
       </c>
       <c r="AH60" t="inlineStr">
         <is>
-          <t>Patients room</t>
+          <t>Patient room</t>
         </is>
       </c>
       <c r="AI60" t="inlineStr">
@@ -11160,7 +11160,7 @@
       </c>
       <c r="AJ60" t="inlineStr">
         <is>
-          <t>1. Time point</t>
+          <t>First Half</t>
         </is>
       </c>
       <c r="AK60" t="inlineStr">
@@ -11180,7 +11180,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Already present</t>
+          <t>Pre-existing, aggravated</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -11198,7 +11198,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Physical strain|Psychological strain|Coordination problems</t>
+          <t>Physical (Over)exertion|Psychological stress|Coordination problems</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -11275,7 +11275,7 @@
       </c>
       <c r="X61" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y61" t="inlineStr">
@@ -11325,7 +11325,7 @@
       </c>
       <c r="AH61" t="inlineStr">
         <is>
-          <t>Patients room</t>
+          <t>Patient room</t>
         </is>
       </c>
       <c r="AI61" t="inlineStr">
@@ -11335,7 +11335,7 @@
       </c>
       <c r="AJ61" t="inlineStr">
         <is>
-          <t>1. Time point</t>
+          <t>First Half</t>
         </is>
       </c>
       <c r="AK61" t="inlineStr">
@@ -11355,7 +11355,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -11368,12 +11368,12 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Pain|Soft tissue/injury</t>
+          <t>Pain|Soft-tissue injury</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Fall event|Coordination problems</t>
+          <t>Fall-related incident|Coordination problems</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -11433,7 +11433,7 @@
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>By medical professionals</t>
+          <t>Medical team</t>
         </is>
       </c>
       <c r="T62" t="inlineStr">
@@ -11454,7 +11454,7 @@
       </c>
       <c r="X62" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y62" t="inlineStr">
@@ -11504,17 +11504,17 @@
       </c>
       <c r="AH62" t="inlineStr">
         <is>
-          <t>Patients room</t>
+          <t>Patient room</t>
         </is>
       </c>
       <c r="AI62" t="inlineStr">
         <is>
-          <t>Full body</t>
+          <t>Multimodal</t>
         </is>
       </c>
       <c r="AJ62" t="inlineStr">
         <is>
-          <t>1. Time point</t>
+          <t>First Half</t>
         </is>
       </c>
       <c r="AK62" t="inlineStr">
@@ -11534,7 +11534,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Already present</t>
+          <t>Pre-existing, aggravated</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -11547,17 +11547,17 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Nausea/Vomiting</t>
+          <t>Nausea/vomiting</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Physical strain|Medical therapy</t>
+          <t>Physical (Over)exertion|Medical treatment</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Internal medicine type</t>
+          <t>Internal organ</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -11633,7 +11633,7 @@
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y63" t="inlineStr">
@@ -11683,7 +11683,7 @@
       </c>
       <c r="AH63" t="inlineStr">
         <is>
-          <t>Patients room</t>
+          <t>Patient room</t>
         </is>
       </c>
       <c r="AI63" t="inlineStr">
@@ -11693,7 +11693,7 @@
       </c>
       <c r="AJ63" t="inlineStr">
         <is>
-          <t>2. Time point</t>
+          <t>Second Half</t>
         </is>
       </c>
       <c r="AK63" t="inlineStr">
@@ -11713,7 +11713,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -11731,12 +11731,12 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Psychological strain|Medical therapy</t>
+          <t>Psychological stress|Medical treatment</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Internal medicine type</t>
+          <t>Internal organ</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -11791,7 +11791,7 @@
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>By psychosocial service</t>
+          <t>Psychosocial team</t>
         </is>
       </c>
       <c r="T64" t="inlineStr">
@@ -11812,7 +11812,7 @@
       </c>
       <c r="X64" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y64" t="inlineStr">
@@ -11837,7 +11837,7 @@
       </c>
       <c r="AC64" t="inlineStr">
         <is>
-          <t>Aftercare</t>
+          <t>Post-treatment care</t>
         </is>
       </c>
       <c r="AD64" t="inlineStr">
@@ -11872,7 +11872,7 @@
       </c>
       <c r="AJ64" t="inlineStr">
         <is>
-          <t>1. Time point</t>
+          <t>First Half</t>
         </is>
       </c>
       <c r="AK64" t="inlineStr">
@@ -11892,7 +11892,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -11910,7 +11910,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Physical strain|Medical therapy</t>
+          <t>Physical (Over)exertion|Medical treatment</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -11970,7 +11970,7 @@
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>By medical professionals</t>
+          <t>Medical team</t>
         </is>
       </c>
       <c r="T65" t="inlineStr">
@@ -11991,7 +11991,7 @@
       </c>
       <c r="X65" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y65" t="inlineStr">
@@ -12041,7 +12041,7 @@
       </c>
       <c r="AH65" t="inlineStr">
         <is>
-          <t>Patients room</t>
+          <t>Patient room</t>
         </is>
       </c>
       <c r="AI65" t="inlineStr">
@@ -12051,7 +12051,7 @@
       </c>
       <c r="AJ65" t="inlineStr">
         <is>
-          <t>2. Time point</t>
+          <t>Second Half</t>
         </is>
       </c>
       <c r="AK65" t="inlineStr">
@@ -12071,7 +12071,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -12089,7 +12089,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Physical strain|Medical therapy</t>
+          <t>Physical (Over)exertion|Medical treatment</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -12149,7 +12149,7 @@
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>By medical professionals</t>
+          <t>Medical team</t>
         </is>
       </c>
       <c r="T66" t="inlineStr">
@@ -12170,7 +12170,7 @@
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y66" t="inlineStr">
@@ -12220,7 +12220,7 @@
       </c>
       <c r="AH66" t="inlineStr">
         <is>
-          <t>Patients room</t>
+          <t>Patient room</t>
         </is>
       </c>
       <c r="AI66" t="inlineStr">
@@ -12230,7 +12230,7 @@
       </c>
       <c r="AJ66" t="inlineStr">
         <is>
-          <t>2. Time point</t>
+          <t>Second Half</t>
         </is>
       </c>
       <c r="AK66" t="inlineStr">
@@ -12250,7 +12250,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -12263,17 +12263,17 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Pain|Nausea/Vomiting|Circulatory problems</t>
+          <t>Pain|Nausea/vomiting|Circulatory problems</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Physical strain|Medical therapy</t>
+          <t>Physical (Over)exertion|Medical treatment</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Internal medicine type</t>
+          <t>Internal organ</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -12349,7 +12349,7 @@
       </c>
       <c r="X67" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y67" t="inlineStr">
@@ -12399,7 +12399,7 @@
       </c>
       <c r="AH67" t="inlineStr">
         <is>
-          <t>Gym</t>
+          <t>Exercise room</t>
         </is>
       </c>
       <c r="AI67" t="inlineStr">
@@ -12409,7 +12409,7 @@
       </c>
       <c r="AJ67" t="inlineStr">
         <is>
-          <t>1. Time point</t>
+          <t>First Half</t>
         </is>
       </c>
       <c r="AK67" t="inlineStr">
@@ -12429,7 +12429,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Already present</t>
+          <t>Pre-existing, aggravated</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -12447,7 +12447,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Physical strain|Medical therapy</t>
+          <t>Physical (Over)exertion|Medical treatment</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -12507,7 +12507,7 @@
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>By medical professionals</t>
+          <t>Medical team</t>
         </is>
       </c>
       <c r="T68" t="inlineStr">
@@ -12528,7 +12528,7 @@
       </c>
       <c r="X68" t="inlineStr">
         <is>
-          <t>Break</t>
+          <t>Suspension of session</t>
         </is>
       </c>
       <c r="Y68" t="inlineStr">
@@ -12578,17 +12578,17 @@
       </c>
       <c r="AH68" t="inlineStr">
         <is>
-          <t>Gym</t>
+          <t>Exercise room</t>
         </is>
       </c>
       <c r="AI68" t="inlineStr">
         <is>
-          <t>Full body</t>
+          <t>Multimodal</t>
         </is>
       </c>
       <c r="AJ68" t="inlineStr">
         <is>
-          <t>2. Time point</t>
+          <t>Second Half</t>
         </is>
       </c>
       <c r="AK68" t="inlineStr">
@@ -12608,7 +12608,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -12626,7 +12626,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Psychological strain|Colliding</t>
+          <t>Psychological stress|Collision</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -12686,7 +12686,7 @@
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>By medical professionals</t>
+          <t>Medical team</t>
         </is>
       </c>
       <c r="T69" t="inlineStr">
@@ -12707,7 +12707,7 @@
       </c>
       <c r="X69" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y69" t="inlineStr">
@@ -12732,7 +12732,7 @@
       </c>
       <c r="AC69" t="inlineStr">
         <is>
-          <t>Aftercare</t>
+          <t>Post-treatment care</t>
         </is>
       </c>
       <c r="AD69" t="inlineStr">
@@ -12767,7 +12767,7 @@
       </c>
       <c r="AJ69" t="inlineStr">
         <is>
-          <t>2. Time point</t>
+          <t>Second Half</t>
         </is>
       </c>
       <c r="AK69" t="inlineStr">
@@ -12787,7 +12787,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -12800,12 +12800,12 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Pain|Soft tissue/injury</t>
+          <t>Pain|Soft-tissue injury</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Fall event|Coordination problems</t>
+          <t>Fall-related incident|Coordination problems</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -12886,7 +12886,7 @@
       </c>
       <c r="X70" t="inlineStr">
         <is>
-          <t>Break</t>
+          <t>Suspension of session</t>
         </is>
       </c>
       <c r="Y70" t="inlineStr">
@@ -12936,7 +12936,7 @@
       </c>
       <c r="AH70" t="inlineStr">
         <is>
-          <t>Patients room</t>
+          <t>Patient room</t>
         </is>
       </c>
       <c r="AI70" t="inlineStr">
@@ -12946,7 +12946,7 @@
       </c>
       <c r="AJ70" t="inlineStr">
         <is>
-          <t>2. Time point</t>
+          <t>Second Half</t>
         </is>
       </c>
       <c r="AK70" t="inlineStr">
@@ -12966,7 +12966,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -12979,7 +12979,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Pain|Soft tissue/injury</t>
+          <t>Pain|Soft-tissue injury</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -13065,7 +13065,7 @@
       </c>
       <c r="X71" t="inlineStr">
         <is>
-          <t>Break</t>
+          <t>Suspension of session</t>
         </is>
       </c>
       <c r="Y71" t="inlineStr">
@@ -13115,7 +13115,7 @@
       </c>
       <c r="AH71" t="inlineStr">
         <is>
-          <t>Patients room</t>
+          <t>Patient room</t>
         </is>
       </c>
       <c r="AI71" t="inlineStr">
@@ -13125,7 +13125,7 @@
       </c>
       <c r="AJ71" t="inlineStr">
         <is>
-          <t>2. Time point</t>
+          <t>Second Half</t>
         </is>
       </c>
       <c r="AK71" t="inlineStr">
@@ -13145,7 +13145,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -13163,7 +13163,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Fall event|Coordination problems</t>
+          <t>Fall-related incident|Coordination problems</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -13203,7 +13203,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>&lt;Unknown&gt;</t>
+          <t>(Unknown)</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
@@ -13223,7 +13223,7 @@
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>By medical professionals</t>
+          <t>Medical team</t>
         </is>
       </c>
       <c r="T72" t="inlineStr">
@@ -13244,7 +13244,7 @@
       </c>
       <c r="X72" t="inlineStr">
         <is>
-          <t>Break</t>
+          <t>Suspension of session</t>
         </is>
       </c>
       <c r="Y72" t="inlineStr">
@@ -13294,7 +13294,7 @@
       </c>
       <c r="AH72" t="inlineStr">
         <is>
-          <t>Outside</t>
+          <t>Outdoors</t>
         </is>
       </c>
       <c r="AI72" t="inlineStr">
@@ -13304,7 +13304,7 @@
       </c>
       <c r="AJ72" t="inlineStr">
         <is>
-          <t>1. Time point</t>
+          <t>First Half</t>
         </is>
       </c>
       <c r="AK72" t="inlineStr">
@@ -13324,7 +13324,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -13342,7 +13342,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Physical strain|Colliding</t>
+          <t>Physical (Over)exertion|Collision</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -13423,7 +13423,7 @@
       </c>
       <c r="X73" t="inlineStr">
         <is>
-          <t>Break</t>
+          <t>Suspension of session</t>
         </is>
       </c>
       <c r="Y73" t="inlineStr">
@@ -13473,7 +13473,7 @@
       </c>
       <c r="AH73" t="inlineStr">
         <is>
-          <t>Gym</t>
+          <t>Exercise room</t>
         </is>
       </c>
       <c r="AI73" t="inlineStr">
@@ -13483,7 +13483,7 @@
       </c>
       <c r="AJ73" t="inlineStr">
         <is>
-          <t>1. Time point</t>
+          <t>First Half</t>
         </is>
       </c>
       <c r="AK73" t="inlineStr">
@@ -13503,7 +13503,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Already present</t>
+          <t>Pre-existing, aggravated</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -13516,17 +13516,17 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Nausea/Vomiting</t>
+          <t>Nausea/vomiting</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Physical strain|Medical therapy</t>
+          <t>Physical (Over)exertion|Medical treatment</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Internal medicine type</t>
+          <t>Internal organ</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -13602,7 +13602,7 @@
       </c>
       <c r="X74" t="inlineStr">
         <is>
-          <t>Break</t>
+          <t>Suspension of session</t>
         </is>
       </c>
       <c r="Y74" t="inlineStr">
@@ -13662,7 +13662,7 @@
       </c>
       <c r="AJ74" t="inlineStr">
         <is>
-          <t>2. Time point</t>
+          <t>Second Half</t>
         </is>
       </c>
       <c r="AK74" t="inlineStr">
@@ -13682,7 +13682,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Already present</t>
+          <t>Pre-existing, aggravated</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -13700,7 +13700,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Physical strain|Psychological strain</t>
+          <t>Physical (Over)exertion|Psychological stress</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -13781,7 +13781,7 @@
       </c>
       <c r="X75" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y75" t="inlineStr">
@@ -13831,7 +13831,7 @@
       </c>
       <c r="AH75" t="inlineStr">
         <is>
-          <t>Patients room</t>
+          <t>Patient room</t>
         </is>
       </c>
       <c r="AI75" t="inlineStr">
@@ -13841,7 +13841,7 @@
       </c>
       <c r="AJ75" t="inlineStr">
         <is>
-          <t>1. Time point</t>
+          <t>First Half</t>
         </is>
       </c>
       <c r="AK75" t="inlineStr">
@@ -13861,7 +13861,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -13879,7 +13879,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Fall event</t>
+          <t>Fall-related incident</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -13960,7 +13960,7 @@
       </c>
       <c r="X76" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y76" t="inlineStr">
@@ -14020,7 +14020,7 @@
       </c>
       <c r="AJ76" t="inlineStr">
         <is>
-          <t>2. Time point</t>
+          <t>Second Half</t>
         </is>
       </c>
       <c r="AK76" t="inlineStr">
@@ -14040,7 +14040,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -14058,12 +14058,12 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Fall event|Psychological strain</t>
+          <t>Fall-related incident|Psychological stress</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Internal medicine type</t>
+          <t>Internal organ</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -14139,7 +14139,7 @@
       </c>
       <c r="X77" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y77" t="inlineStr">
@@ -14189,7 +14189,7 @@
       </c>
       <c r="AH77" t="inlineStr">
         <is>
-          <t>Gym</t>
+          <t>Exercise room</t>
         </is>
       </c>
       <c r="AI77" t="inlineStr">
@@ -14199,7 +14199,7 @@
       </c>
       <c r="AJ77" t="inlineStr">
         <is>
-          <t>2. Time point</t>
+          <t>Second Half</t>
         </is>
       </c>
       <c r="AK77" t="inlineStr">
@@ -14219,7 +14219,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Already present</t>
+          <t>Pre-existing, aggravated</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -14232,17 +14232,17 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Nausea/Vomiting</t>
+          <t>Nausea/vomiting</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Physical strain|Medical therapy</t>
+          <t>Physical (Over)exertion|Medical treatment</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Internal medicine type</t>
+          <t>Internal organ</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -14318,7 +14318,7 @@
       </c>
       <c r="X78" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y78" t="inlineStr">
@@ -14368,7 +14368,7 @@
       </c>
       <c r="AH78" t="inlineStr">
         <is>
-          <t>Patients room</t>
+          <t>Patient room</t>
         </is>
       </c>
       <c r="AI78" t="inlineStr">
@@ -14378,7 +14378,7 @@
       </c>
       <c r="AJ78" t="inlineStr">
         <is>
-          <t>1. Time point</t>
+          <t>First Half</t>
         </is>
       </c>
       <c r="AK78" t="inlineStr">
@@ -14398,7 +14398,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -14416,7 +14416,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Physical strain|Medical therapy</t>
+          <t>Physical (Over)exertion|Medical treatment</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -14456,7 +14456,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>&lt;Unknown&gt;</t>
+          <t>(Unknown)</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
@@ -14497,7 +14497,7 @@
       </c>
       <c r="X79" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y79" t="inlineStr">
@@ -14547,7 +14547,7 @@
       </c>
       <c r="AH79" t="inlineStr">
         <is>
-          <t>Gym</t>
+          <t>Exercise room</t>
         </is>
       </c>
       <c r="AI79" t="inlineStr">
@@ -14557,7 +14557,7 @@
       </c>
       <c r="AJ79" t="inlineStr">
         <is>
-          <t>1. Time point</t>
+          <t>First Half</t>
         </is>
       </c>
       <c r="AK79" t="inlineStr">
@@ -14577,7 +14577,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -14595,7 +14595,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Physical strain|Medical therapy</t>
+          <t>Physical (Over)exertion|Medical treatment</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -14635,7 +14635,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>&lt;Unknown&gt;</t>
+          <t>(Unknown)</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
@@ -14676,7 +14676,7 @@
       </c>
       <c r="X80" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y80" t="inlineStr">
@@ -14726,7 +14726,7 @@
       </c>
       <c r="AH80" t="inlineStr">
         <is>
-          <t>Gym</t>
+          <t>Exercise room</t>
         </is>
       </c>
       <c r="AI80" t="inlineStr">
@@ -14736,7 +14736,7 @@
       </c>
       <c r="AJ80" t="inlineStr">
         <is>
-          <t>1. Time point</t>
+          <t>First Half</t>
         </is>
       </c>
       <c r="AK80" t="inlineStr">
@@ -14756,7 +14756,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -14774,12 +14774,12 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Colliding</t>
+          <t>Collision</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Intimate area</t>
+          <t>Genital area</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -14814,7 +14814,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>&lt;Unknown&gt;</t>
+          <t>(Unknown)</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
@@ -14834,7 +14834,7 @@
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>By medical professionals</t>
+          <t>Medical team</t>
         </is>
       </c>
       <c r="T81" t="inlineStr">
@@ -14855,7 +14855,7 @@
       </c>
       <c r="X81" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y81" t="inlineStr">
@@ -14905,7 +14905,7 @@
       </c>
       <c r="AH81" t="inlineStr">
         <is>
-          <t>Gym</t>
+          <t>Exercise room</t>
         </is>
       </c>
       <c r="AI81" t="inlineStr">
@@ -14915,7 +14915,7 @@
       </c>
       <c r="AJ81" t="inlineStr">
         <is>
-          <t>2. Time point</t>
+          <t>Second Half</t>
         </is>
       </c>
       <c r="AK81" t="inlineStr">
@@ -14935,7 +14935,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -14953,12 +14953,12 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Physical strain|Medical therapy</t>
+          <t>Physical (Over)exertion|Medical treatment</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Internal medicine type</t>
+          <t>Internal organ</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -15034,7 +15034,7 @@
       </c>
       <c r="X82" t="inlineStr">
         <is>
-          <t>Break</t>
+          <t>Suspension of session</t>
         </is>
       </c>
       <c r="Y82" t="inlineStr">
@@ -15084,7 +15084,7 @@
       </c>
       <c r="AH82" t="inlineStr">
         <is>
-          <t>Gym</t>
+          <t>Exercise room</t>
         </is>
       </c>
       <c r="AI82" t="inlineStr">
@@ -15094,7 +15094,7 @@
       </c>
       <c r="AJ82" t="inlineStr">
         <is>
-          <t>1. Time point</t>
+          <t>First Half</t>
         </is>
       </c>
       <c r="AK82" t="inlineStr">
@@ -15114,7 +15114,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -15132,7 +15132,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Physical strain|Medical therapy</t>
+          <t>Physical (Over)exertion|Medical treatment</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -15172,7 +15172,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>&lt;Unknown&gt;</t>
+          <t>(Unknown)</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
@@ -15192,7 +15192,7 @@
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>By nursing staff</t>
+          <t>Nursing team</t>
         </is>
       </c>
       <c r="T83" t="inlineStr">
@@ -15213,7 +15213,7 @@
       </c>
       <c r="X83" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y83" t="inlineStr">
@@ -15263,7 +15263,7 @@
       </c>
       <c r="AH83" t="inlineStr">
         <is>
-          <t>Gym</t>
+          <t>Exercise room</t>
         </is>
       </c>
       <c r="AI83" t="inlineStr">
@@ -15273,7 +15273,7 @@
       </c>
       <c r="AJ83" t="inlineStr">
         <is>
-          <t>2. Time point</t>
+          <t>Second Half</t>
         </is>
       </c>
       <c r="AK83" t="inlineStr">
@@ -15293,7 +15293,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -15311,7 +15311,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Physical strain|Coordination problems</t>
+          <t>Physical (Over)exertion|Coordination problems</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -15371,7 +15371,7 @@
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>By physiotherapy</t>
+          <t>Physiotherapy</t>
         </is>
       </c>
       <c r="T84" t="inlineStr">
@@ -15392,7 +15392,7 @@
       </c>
       <c r="X84" t="inlineStr">
         <is>
-          <t>Break</t>
+          <t>Suspension of session</t>
         </is>
       </c>
       <c r="Y84" t="inlineStr">
@@ -15442,7 +15442,7 @@
       </c>
       <c r="AH84" t="inlineStr">
         <is>
-          <t>Gym</t>
+          <t>Exercise room</t>
         </is>
       </c>
       <c r="AI84" t="inlineStr">
@@ -15452,7 +15452,7 @@
       </c>
       <c r="AJ84" t="inlineStr">
         <is>
-          <t>1. Time point</t>
+          <t>First Half</t>
         </is>
       </c>
       <c r="AK84" t="inlineStr">
@@ -15472,7 +15472,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Already present</t>
+          <t>Pre-existing, aggravated</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -15485,17 +15485,17 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Nausea/Vomiting</t>
+          <t>Nausea/vomiting</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Physical strain|Medical therapy</t>
+          <t>Physical (Over)exertion|Medical treatment</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Internal medicine type</t>
+          <t>Internal organ</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -15571,7 +15571,7 @@
       </c>
       <c r="X85" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y85" t="inlineStr">
@@ -15631,7 +15631,7 @@
       </c>
       <c r="AJ85" t="inlineStr">
         <is>
-          <t>2. Time point</t>
+          <t>Second Half</t>
         </is>
       </c>
       <c r="AK85" t="inlineStr">
@@ -15651,7 +15651,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -15664,17 +15664,17 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Nausea/Vomiting</t>
+          <t>Nausea/vomiting</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Physical strain|Medical therapy</t>
+          <t>Physical (Over)exertion|Medical treatment</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Internal medicine type</t>
+          <t>Internal organ</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -15729,7 +15729,7 @@
       </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t>By nursing staff</t>
+          <t>Nursing team</t>
         </is>
       </c>
       <c r="T86" t="inlineStr">
@@ -15750,7 +15750,7 @@
       </c>
       <c r="X86" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y86" t="inlineStr">
@@ -15805,12 +15805,12 @@
       </c>
       <c r="AI86" t="inlineStr">
         <is>
-          <t>Full body</t>
+          <t>Multimodal</t>
         </is>
       </c>
       <c r="AJ86" t="inlineStr">
         <is>
-          <t>2. Time point</t>
+          <t>Second Half</t>
         </is>
       </c>
       <c r="AK86" t="inlineStr">
@@ -15830,7 +15830,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -15848,12 +15848,12 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Physical strain</t>
+          <t>Physical (Over)exertion</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Internal medicine type</t>
+          <t>Internal organ</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -15888,7 +15888,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>&lt;Unknown&gt;</t>
+          <t>(Unknown)</t>
         </is>
       </c>
       <c r="P87" t="inlineStr">
@@ -15929,7 +15929,7 @@
       </c>
       <c r="X87" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y87" t="inlineStr">
@@ -15979,17 +15979,17 @@
       </c>
       <c r="AH87" t="inlineStr">
         <is>
-          <t>Patients room</t>
+          <t>Patient room</t>
         </is>
       </c>
       <c r="AI87" t="inlineStr">
         <is>
-          <t>Full body</t>
+          <t>Multimodal</t>
         </is>
       </c>
       <c r="AJ87" t="inlineStr">
         <is>
-          <t>2. Time point</t>
+          <t>Second Half</t>
         </is>
       </c>
       <c r="AK87" t="inlineStr">
@@ -16009,7 +16009,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -16108,7 +16108,7 @@
       </c>
       <c r="X88" t="inlineStr">
         <is>
-          <t>Break</t>
+          <t>Suspension of session</t>
         </is>
       </c>
       <c r="Y88" t="inlineStr">
@@ -16158,7 +16158,7 @@
       </c>
       <c r="AH88" t="inlineStr">
         <is>
-          <t>Patients room</t>
+          <t>Patient room</t>
         </is>
       </c>
       <c r="AI88" t="inlineStr">
@@ -16168,7 +16168,7 @@
       </c>
       <c r="AJ88" t="inlineStr">
         <is>
-          <t>2. Time point</t>
+          <t>Second Half</t>
         </is>
       </c>
       <c r="AK88" t="inlineStr">
@@ -16188,7 +16188,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -16201,17 +16201,17 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Nausea/Vomiting</t>
+          <t>Nausea/vomiting</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Physical strain|Medical therapy</t>
+          <t>Physical (Over)exertion|Medical treatment</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Internal medicine type</t>
+          <t>Internal organ</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -16266,7 +16266,7 @@
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>By nursing staff</t>
+          <t>Nursing team</t>
         </is>
       </c>
       <c r="T89" t="inlineStr">
@@ -16287,7 +16287,7 @@
       </c>
       <c r="X89" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y89" t="inlineStr">
@@ -16337,12 +16337,12 @@
       </c>
       <c r="AH89" t="inlineStr">
         <is>
-          <t>Gym</t>
+          <t>Exercise room</t>
         </is>
       </c>
       <c r="AI89" t="inlineStr">
         <is>
-          <t>Full body</t>
+          <t>Multimodal</t>
         </is>
       </c>
       <c r="AJ89" t="inlineStr">
@@ -16367,7 +16367,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -16385,7 +16385,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Fall event</t>
+          <t>Fall-related incident</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -16466,7 +16466,7 @@
       </c>
       <c r="X90" t="inlineStr">
         <is>
-          <t>Break</t>
+          <t>Suspension of session</t>
         </is>
       </c>
       <c r="Y90" t="inlineStr">
@@ -16516,7 +16516,7 @@
       </c>
       <c r="AH90" t="inlineStr">
         <is>
-          <t>Gym</t>
+          <t>Exercise room</t>
         </is>
       </c>
       <c r="AI90" t="inlineStr">
@@ -16526,7 +16526,7 @@
       </c>
       <c r="AJ90" t="inlineStr">
         <is>
-          <t>2. Time point</t>
+          <t>Second Half</t>
         </is>
       </c>
       <c r="AK90" t="inlineStr">
@@ -16546,7 +16546,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -16564,12 +16564,12 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Physical strain|Medical therapy</t>
+          <t>Physical (Over)exertion|Medical treatment</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Internal medicine type</t>
+          <t>Internal organ</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -16645,7 +16645,7 @@
       </c>
       <c r="X91" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y91" t="inlineStr">
@@ -16705,7 +16705,7 @@
       </c>
       <c r="AJ91" t="inlineStr">
         <is>
-          <t>1. Time point</t>
+          <t>First Half</t>
         </is>
       </c>
       <c r="AK91" t="inlineStr">
@@ -16725,7 +16725,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -16743,7 +16743,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Fall event</t>
+          <t>Fall-related incident</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -16824,7 +16824,7 @@
       </c>
       <c r="X92" t="inlineStr">
         <is>
-          <t>Break</t>
+          <t>Suspension of session</t>
         </is>
       </c>
       <c r="Y92" t="inlineStr">
@@ -16884,7 +16884,7 @@
       </c>
       <c r="AJ92" t="inlineStr">
         <is>
-          <t>2. Time point</t>
+          <t>Second Half</t>
         </is>
       </c>
       <c r="AK92" t="inlineStr">
@@ -16904,7 +16904,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -16917,17 +16917,17 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Nausea/Vomiting</t>
+          <t>Nausea/vomiting</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Physical strain|Medical therapy</t>
+          <t>Physical (Over)exertion|Medical treatment</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Internal medicine type</t>
+          <t>Internal organ</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -16982,7 +16982,7 @@
       </c>
       <c r="S93" t="inlineStr">
         <is>
-          <t>By nursing staff</t>
+          <t>Nursing team</t>
         </is>
       </c>
       <c r="T93" t="inlineStr">
@@ -17003,7 +17003,7 @@
       </c>
       <c r="X93" t="inlineStr">
         <is>
-          <t>Break</t>
+          <t>Suspension of session</t>
         </is>
       </c>
       <c r="Y93" t="inlineStr">
@@ -17058,12 +17058,12 @@
       </c>
       <c r="AI93" t="inlineStr">
         <is>
-          <t>Full body</t>
+          <t>Multimodal</t>
         </is>
       </c>
       <c r="AJ93" t="inlineStr">
         <is>
-          <t>1. Time point</t>
+          <t>First Half</t>
         </is>
       </c>
       <c r="AK93" t="inlineStr">
@@ -17083,7 +17083,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -17096,17 +17096,17 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Nausea/Vomiting</t>
+          <t>Nausea/vomiting</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Physical strain|Medical therapy</t>
+          <t>Physical (Over)exertion|Medical treatment</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Internal medicine type</t>
+          <t>Internal organ</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -17161,7 +17161,7 @@
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>By nursing staff</t>
+          <t>Nursing team</t>
         </is>
       </c>
       <c r="T94" t="inlineStr">
@@ -17182,7 +17182,7 @@
       </c>
       <c r="X94" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y94" t="inlineStr">
@@ -17232,17 +17232,17 @@
       </c>
       <c r="AH94" t="inlineStr">
         <is>
-          <t>Gym</t>
+          <t>Exercise room</t>
         </is>
       </c>
       <c r="AI94" t="inlineStr">
         <is>
-          <t>Full body</t>
+          <t>Multimodal</t>
         </is>
       </c>
       <c r="AJ94" t="inlineStr">
         <is>
-          <t>1. Time point</t>
+          <t>First Half</t>
         </is>
       </c>
       <c r="AK94" t="inlineStr">
@@ -17262,7 +17262,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -17275,17 +17275,17 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Nausea/Vomiting</t>
+          <t>Nausea/vomiting</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Physical strain|Medical therapy</t>
+          <t>Physical (Over)exertion|Medical treatment</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Internal medicine type</t>
+          <t>Internal organ</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -17361,7 +17361,7 @@
       </c>
       <c r="X95" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y95" t="inlineStr">
@@ -17407,7 +17407,7 @@
       </c>
       <c r="AH95" t="inlineStr">
         <is>
-          <t>Gym</t>
+          <t>Exercise room</t>
         </is>
       </c>
       <c r="AI95" t="inlineStr">
@@ -17417,7 +17417,7 @@
       </c>
       <c r="AJ95" t="inlineStr">
         <is>
-          <t>1. Time point</t>
+          <t>First Half</t>
         </is>
       </c>
       <c r="AK95" t="inlineStr">
@@ -17437,7 +17437,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -17455,7 +17455,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Physical strain|Medical therapy</t>
+          <t>Physical (Over)exertion|Medical treatment</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -17495,7 +17495,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>&lt;Unknown&gt;</t>
+          <t>(Unknown)</t>
         </is>
       </c>
       <c r="P96" t="inlineStr">
@@ -17515,7 +17515,7 @@
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t>By nursing staff</t>
+          <t>Nursing team</t>
         </is>
       </c>
       <c r="T96" t="inlineStr">
@@ -17536,7 +17536,7 @@
       </c>
       <c r="X96" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y96" t="inlineStr">
@@ -17586,17 +17586,17 @@
       </c>
       <c r="AH96" t="inlineStr">
         <is>
-          <t>Patients room</t>
+          <t>Patient room</t>
         </is>
       </c>
       <c r="AI96" t="inlineStr">
         <is>
-          <t>Full body</t>
+          <t>Multimodal</t>
         </is>
       </c>
       <c r="AJ96" t="inlineStr">
         <is>
-          <t>2. Time point</t>
+          <t>Second Half</t>
         </is>
       </c>
       <c r="AK96" t="inlineStr">
@@ -17616,7 +17616,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -17634,7 +17634,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Physical strain</t>
+          <t>Physical (Over)exertion</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -17775,7 +17775,7 @@
       </c>
       <c r="AJ97" t="inlineStr">
         <is>
-          <t>2. Time point</t>
+          <t>Second Half</t>
         </is>
       </c>
       <c r="AK97" t="inlineStr">
@@ -17795,7 +17795,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -17813,7 +17813,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Physical strain</t>
+          <t>Physical (Over)exertion</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -17954,7 +17954,7 @@
       </c>
       <c r="AJ98" t="inlineStr">
         <is>
-          <t>2. Time point</t>
+          <t>Second Half</t>
         </is>
       </c>
       <c r="AK98" t="inlineStr">
@@ -17974,7 +17974,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -17987,17 +17987,17 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Nausea/Vomiting</t>
+          <t>Nausea/vomiting</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Physical strain|Medical therapy</t>
+          <t>Physical (Over)exertion|Medical treatment</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Internal medicine type</t>
+          <t>Internal organ</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -18073,7 +18073,7 @@
       </c>
       <c r="X99" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y99" t="inlineStr">
@@ -18128,12 +18128,12 @@
       </c>
       <c r="AI99" t="inlineStr">
         <is>
-          <t>Full body</t>
+          <t>Multimodal</t>
         </is>
       </c>
       <c r="AJ99" t="inlineStr">
         <is>
-          <t>2. Time point</t>
+          <t>Second Half</t>
         </is>
       </c>
       <c r="AK99" t="inlineStr">
@@ -18153,7 +18153,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -18166,17 +18166,17 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Circulatory problems|Severe exhaustion</t>
+          <t>Circulatory problems|Physical (Over)exertion</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Physical strain|Medical therapy</t>
+          <t>Physical (Over)exertion|Medical treatment</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Internal medicine type</t>
+          <t>Internal organ</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -18211,7 +18211,7 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>&lt;Unknown&gt;</t>
+          <t>(Unknown)</t>
         </is>
       </c>
       <c r="P100" t="inlineStr">
@@ -18307,12 +18307,12 @@
       </c>
       <c r="AI100" t="inlineStr">
         <is>
-          <t>Full body</t>
+          <t>Multimodal</t>
         </is>
       </c>
       <c r="AJ100" t="inlineStr">
         <is>
-          <t>1. Time point</t>
+          <t>First Half</t>
         </is>
       </c>
       <c r="AK100" t="inlineStr">
@@ -18332,7 +18332,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -18350,7 +18350,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Physical strain</t>
+          <t>Physical (Over)exertion</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -18410,7 +18410,7 @@
       </c>
       <c r="S101" t="inlineStr">
         <is>
-          <t>By medical professionals</t>
+          <t>Medical team</t>
         </is>
       </c>
       <c r="T101" t="inlineStr">
@@ -18431,7 +18431,7 @@
       </c>
       <c r="X101" t="inlineStr">
         <is>
-          <t>Break</t>
+          <t>Suspension of session</t>
         </is>
       </c>
       <c r="Y101" t="inlineStr">
@@ -18481,7 +18481,7 @@
       </c>
       <c r="AH101" t="inlineStr">
         <is>
-          <t>Gym</t>
+          <t>Exercise room</t>
         </is>
       </c>
       <c r="AI101" t="inlineStr">
@@ -18511,7 +18511,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -18524,12 +18524,12 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Soft tissue/injury</t>
+          <t>Soft-tissue injury</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Colliding</t>
+          <t>Collision</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -18589,7 +18589,7 @@
       </c>
       <c r="S102" t="inlineStr">
         <is>
-          <t>By medical professionals</t>
+          <t>Medical team</t>
         </is>
       </c>
       <c r="T102" t="inlineStr">
@@ -18660,7 +18660,7 @@
       </c>
       <c r="AH102" t="inlineStr">
         <is>
-          <t>Gym</t>
+          <t>Exercise room</t>
         </is>
       </c>
       <c r="AI102" t="inlineStr">
@@ -18670,7 +18670,7 @@
       </c>
       <c r="AJ102" t="inlineStr">
         <is>
-          <t>2. Time point</t>
+          <t>Second Half</t>
         </is>
       </c>
       <c r="AK102" t="inlineStr">
@@ -18690,7 +18690,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -18708,7 +18708,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Fall event</t>
+          <t>Fall-related incident</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -18789,7 +18789,7 @@
       </c>
       <c r="X103" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y103" t="inlineStr">
@@ -18839,7 +18839,7 @@
       </c>
       <c r="AH103" t="inlineStr">
         <is>
-          <t>Gym</t>
+          <t>Exercise room</t>
         </is>
       </c>
       <c r="AI103" t="inlineStr">
@@ -18869,7 +18869,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Already present</t>
+          <t>Pre-existing, aggravated</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -18887,7 +18887,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Physical strain</t>
+          <t>Physical (Over)exertion</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -18968,7 +18968,7 @@
       </c>
       <c r="X104" t="inlineStr">
         <is>
-          <t>Break</t>
+          <t>Suspension of session</t>
         </is>
       </c>
       <c r="Y104" t="inlineStr">
@@ -18993,7 +18993,7 @@
       </c>
       <c r="AC104" t="inlineStr">
         <is>
-          <t>Aftercare</t>
+          <t>Post-treatment care</t>
         </is>
       </c>
       <c r="AD104" t="inlineStr">
@@ -19048,7 +19048,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -19066,7 +19066,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Physical strain</t>
+          <t>Physical (Over)exertion</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -19147,7 +19147,7 @@
       </c>
       <c r="X105" t="inlineStr">
         <is>
-          <t>Break</t>
+          <t>Suspension of session</t>
         </is>
       </c>
       <c r="Y105" t="inlineStr">
@@ -19172,7 +19172,7 @@
       </c>
       <c r="AC105" t="inlineStr">
         <is>
-          <t>Aftercare</t>
+          <t>Post-treatment care</t>
         </is>
       </c>
       <c r="AD105" t="inlineStr">
@@ -19202,7 +19202,7 @@
       </c>
       <c r="AI105" t="inlineStr">
         <is>
-          <t>Full body</t>
+          <t>Multimodal</t>
         </is>
       </c>
       <c r="AJ105" t="inlineStr">
@@ -19227,7 +19227,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -19245,7 +19245,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Fall event</t>
+          <t>Fall-related incident</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -19326,7 +19326,7 @@
       </c>
       <c r="X106" t="inlineStr">
         <is>
-          <t>Break</t>
+          <t>Suspension of session</t>
         </is>
       </c>
       <c r="Y106" t="inlineStr">
@@ -19351,7 +19351,7 @@
       </c>
       <c r="AC106" t="inlineStr">
         <is>
-          <t>Aftercare</t>
+          <t>Post-treatment care</t>
         </is>
       </c>
       <c r="AD106" t="inlineStr">
@@ -19376,7 +19376,7 @@
       </c>
       <c r="AH106" t="inlineStr">
         <is>
-          <t>Outside</t>
+          <t>Outdoors</t>
         </is>
       </c>
       <c r="AI106" t="inlineStr">
@@ -19406,7 +19406,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Already present</t>
+          <t>Pre-existing, aggravated</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -19424,7 +19424,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Physical strain</t>
+          <t>Physical (Over)exertion</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -19505,7 +19505,7 @@
       </c>
       <c r="X107" t="inlineStr">
         <is>
-          <t>Break</t>
+          <t>Suspension of session</t>
         </is>
       </c>
       <c r="Y107" t="inlineStr">
@@ -19530,7 +19530,7 @@
       </c>
       <c r="AC107" t="inlineStr">
         <is>
-          <t>Aftercare</t>
+          <t>Post-treatment care</t>
         </is>
       </c>
       <c r="AD107" t="inlineStr">
@@ -19555,12 +19555,12 @@
       </c>
       <c r="AH107" t="inlineStr">
         <is>
-          <t>Outside</t>
+          <t>Outdoors</t>
         </is>
       </c>
       <c r="AI107" t="inlineStr">
         <is>
-          <t>Full body</t>
+          <t>Multimodal</t>
         </is>
       </c>
       <c r="AJ107" t="inlineStr">
@@ -19585,7 +19585,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -19603,7 +19603,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Physical strain</t>
+          <t>Physical (Over)exertion</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -19684,7 +19684,7 @@
       </c>
       <c r="X108" t="inlineStr">
         <is>
-          <t>Break</t>
+          <t>Suspension of session</t>
         </is>
       </c>
       <c r="Y108" t="inlineStr">
@@ -19709,7 +19709,7 @@
       </c>
       <c r="AC108" t="inlineStr">
         <is>
-          <t>Aftercare</t>
+          <t>Post-treatment care</t>
         </is>
       </c>
       <c r="AD108" t="inlineStr">
@@ -19734,12 +19734,12 @@
       </c>
       <c r="AH108" t="inlineStr">
         <is>
-          <t>Gym</t>
+          <t>Exercise room</t>
         </is>
       </c>
       <c r="AI108" t="inlineStr">
         <is>
-          <t>Full body</t>
+          <t>Multimodal</t>
         </is>
       </c>
       <c r="AJ108" t="inlineStr">
@@ -19764,7 +19764,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -19782,7 +19782,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Fall event|Coordination problems</t>
+          <t>Fall-related incident|Coordination problems</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -19863,7 +19863,7 @@
       </c>
       <c r="X109" t="inlineStr">
         <is>
-          <t>Break</t>
+          <t>Suspension of session</t>
         </is>
       </c>
       <c r="Y109" t="inlineStr">
@@ -19943,7 +19943,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -19961,12 +19961,12 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Physical strain|Environmental conditions</t>
+          <t>Physical (Over)exertion|Environmental conditions</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Internal medicine type</t>
+          <t>Internal organ</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -20021,7 +20021,7 @@
       </c>
       <c r="S110" t="inlineStr">
         <is>
-          <t>By nursing staff</t>
+          <t>Nursing team</t>
         </is>
       </c>
       <c r="T110" t="inlineStr">
@@ -20042,7 +20042,7 @@
       </c>
       <c r="X110" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y110" t="inlineStr">
@@ -20122,7 +20122,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -20140,12 +20140,12 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Physical strain|Environmental conditions</t>
+          <t>Physical (Over)exertion|Environmental conditions</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Internal medicine type</t>
+          <t>Internal organ</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -20221,7 +20221,7 @@
       </c>
       <c r="X111" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y111" t="inlineStr">
@@ -20301,7 +20301,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -20319,7 +20319,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Fall event|Coordination problems</t>
+          <t>Fall-related incident|Coordination problems</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -20400,7 +20400,7 @@
       </c>
       <c r="X112" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y112" t="inlineStr">
@@ -20480,7 +20480,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -20498,7 +20498,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Physical strain</t>
+          <t>Physical (Over)exertion</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -20634,7 +20634,7 @@
       </c>
       <c r="AI113" t="inlineStr">
         <is>
-          <t>Full body</t>
+          <t>Multimodal</t>
         </is>
       </c>
       <c r="AJ113" t="inlineStr">
@@ -20659,7 +20659,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -20672,17 +20672,17 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Nausea/Vomiting|Circulatory problems</t>
+          <t>Nausea/vomiting|Circulatory problems</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Physical strain|Environmental conditions</t>
+          <t>Physical (Over)exertion|Environmental conditions</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Internal medicine type</t>
+          <t>Internal organ</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -20758,7 +20758,7 @@
       </c>
       <c r="X114" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y114" t="inlineStr">
@@ -20813,7 +20813,7 @@
       </c>
       <c r="AI114" t="inlineStr">
         <is>
-          <t>Full body</t>
+          <t>Multimodal</t>
         </is>
       </c>
       <c r="AJ114" t="inlineStr">
@@ -20838,7 +20838,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -20856,7 +20856,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Fall event|Coordination problems</t>
+          <t>Fall-related incident|Coordination problems</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -20916,7 +20916,7 @@
       </c>
       <c r="S115" t="inlineStr">
         <is>
-          <t>By nursing staff</t>
+          <t>Nursing team</t>
         </is>
       </c>
       <c r="T115" t="inlineStr">
@@ -20937,7 +20937,7 @@
       </c>
       <c r="X115" t="inlineStr">
         <is>
-          <t>Break</t>
+          <t>Suspension of session</t>
         </is>
       </c>
       <c r="Y115" t="inlineStr">
@@ -20987,7 +20987,7 @@
       </c>
       <c r="AH115" t="inlineStr">
         <is>
-          <t>Patients room</t>
+          <t>Patient room</t>
         </is>
       </c>
       <c r="AI115" t="inlineStr">
@@ -20997,7 +20997,7 @@
       </c>
       <c r="AJ115" t="inlineStr">
         <is>
-          <t>2. Time point</t>
+          <t>Second Half</t>
         </is>
       </c>
       <c r="AK115" t="inlineStr">
@@ -21017,7 +21017,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -21035,7 +21035,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Fall event|Physical strain</t>
+          <t>Fall-related incident|Physical (Over)exertion</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -21095,7 +21095,7 @@
       </c>
       <c r="S116" t="inlineStr">
         <is>
-          <t>By nursing staff</t>
+          <t>Nursing team</t>
         </is>
       </c>
       <c r="T116" t="inlineStr">
@@ -21116,7 +21116,7 @@
       </c>
       <c r="X116" t="inlineStr">
         <is>
-          <t>Break</t>
+          <t>Suspension of session</t>
         </is>
       </c>
       <c r="Y116" t="inlineStr">
@@ -21171,12 +21171,12 @@
       </c>
       <c r="AI116" t="inlineStr">
         <is>
-          <t>Full body</t>
+          <t>Multimodal</t>
         </is>
       </c>
       <c r="AJ116" t="inlineStr">
         <is>
-          <t>1. Time point</t>
+          <t>First Half</t>
         </is>
       </c>
       <c r="AK116" t="inlineStr">
@@ -21196,7 +21196,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Already present</t>
+          <t>Pre-existing, aggravated</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -21209,17 +21209,17 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Nausea/Vomiting</t>
+          <t>Nausea/vomiting</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Physical strain|Medical therapy</t>
+          <t>Physical (Over)exertion|Medical treatment</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Internal medicine type</t>
+          <t>Internal organ</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -21295,7 +21295,7 @@
       </c>
       <c r="X117" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y117" t="inlineStr">
@@ -21345,7 +21345,7 @@
       </c>
       <c r="AH117" t="inlineStr">
         <is>
-          <t>Patients room</t>
+          <t>Patient room</t>
         </is>
       </c>
       <c r="AI117" t="inlineStr">
@@ -21375,7 +21375,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -21393,7 +21393,7 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Physical strain</t>
+          <t>Physical (Over)exertion</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -21453,7 +21453,7 @@
       </c>
       <c r="S118" t="inlineStr">
         <is>
-          <t>By medical professionals</t>
+          <t>Medical team</t>
         </is>
       </c>
       <c r="T118" t="inlineStr">
@@ -21529,12 +21529,12 @@
       </c>
       <c r="AI118" t="inlineStr">
         <is>
-          <t>Full body</t>
+          <t>Multimodal</t>
         </is>
       </c>
       <c r="AJ118" t="inlineStr">
         <is>
-          <t>2. Time point</t>
+          <t>Second Half</t>
         </is>
       </c>
       <c r="AK118" t="inlineStr">
@@ -21554,7 +21554,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Already present</t>
+          <t>Pre-existing, aggravated</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -21572,12 +21572,12 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Physical strain|Medical therapy</t>
+          <t>Physical (Over)exertion|Medical treatment</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Internal medicine type</t>
+          <t>Internal organ</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -21632,7 +21632,7 @@
       </c>
       <c r="S119" t="inlineStr">
         <is>
-          <t>By nursing staff</t>
+          <t>Nursing team</t>
         </is>
       </c>
       <c r="T119" t="inlineStr">
@@ -21653,7 +21653,7 @@
       </c>
       <c r="X119" t="inlineStr">
         <is>
-          <t>Break</t>
+          <t>Suspension of session</t>
         </is>
       </c>
       <c r="Y119" t="inlineStr">
@@ -21703,7 +21703,7 @@
       </c>
       <c r="AH119" t="inlineStr">
         <is>
-          <t>Patients room</t>
+          <t>Patient room</t>
         </is>
       </c>
       <c r="AI119" t="inlineStr">
@@ -21733,7 +21733,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -21751,7 +21751,7 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Physical strain</t>
+          <t>Physical (Over)exertion</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -21832,7 +21832,7 @@
       </c>
       <c r="X120" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y120" t="inlineStr">
@@ -21892,7 +21892,7 @@
       </c>
       <c r="AJ120" t="inlineStr">
         <is>
-          <t>2. Time point</t>
+          <t>Second Half</t>
         </is>
       </c>
       <c r="AK120" t="inlineStr">
@@ -21912,7 +21912,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -21930,7 +21930,7 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Fall event</t>
+          <t>Fall-related incident</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -21990,7 +21990,7 @@
       </c>
       <c r="S121" t="inlineStr">
         <is>
-          <t>By nursing staff</t>
+          <t>Nursing team</t>
         </is>
       </c>
       <c r="T121" t="inlineStr">
@@ -22011,7 +22011,7 @@
       </c>
       <c r="X121" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y121" t="inlineStr">
@@ -22091,7 +22091,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -22109,7 +22109,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Fall event</t>
+          <t>Fall-related incident</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -22190,7 +22190,7 @@
       </c>
       <c r="X122" t="inlineStr">
         <is>
-          <t>Break</t>
+          <t>Suspension of session</t>
         </is>
       </c>
       <c r="Y122" t="inlineStr">
@@ -22240,7 +22240,7 @@
       </c>
       <c r="AH122" t="inlineStr">
         <is>
-          <t>Gym</t>
+          <t>Exercise room</t>
         </is>
       </c>
       <c r="AI122" t="inlineStr">
@@ -22270,7 +22270,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -22288,7 +22288,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Medical therapy</t>
+          <t>Medical treatment</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -22328,7 +22328,7 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>&lt;Unknown&gt;</t>
+          <t>(Unknown)</t>
         </is>
       </c>
       <c r="P123" t="inlineStr">
@@ -22348,7 +22348,7 @@
       </c>
       <c r="S123" t="inlineStr">
         <is>
-          <t>By nursing staff</t>
+          <t>Nursing team</t>
         </is>
       </c>
       <c r="T123" t="inlineStr">
@@ -22369,7 +22369,7 @@
       </c>
       <c r="X123" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y123" t="inlineStr">
@@ -22419,7 +22419,7 @@
       </c>
       <c r="AH123" t="inlineStr">
         <is>
-          <t>Gym</t>
+          <t>Exercise room</t>
         </is>
       </c>
       <c r="AI123" t="inlineStr">
@@ -22449,7 +22449,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -22467,7 +22467,7 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Fall event|Coordination problems</t>
+          <t>Fall-related incident|Coordination problems</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -22527,7 +22527,7 @@
       </c>
       <c r="S124" t="inlineStr">
         <is>
-          <t>By nursing staff</t>
+          <t>Nursing team</t>
         </is>
       </c>
       <c r="T124" t="inlineStr">
@@ -22548,7 +22548,7 @@
       </c>
       <c r="X124" t="inlineStr">
         <is>
-          <t>Break</t>
+          <t>Suspension of session</t>
         </is>
       </c>
       <c r="Y124" t="inlineStr">
@@ -22628,7 +22628,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -22646,7 +22646,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Physical strain|Medical therapy</t>
+          <t>Physical (Over)exertion|Medical treatment</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -22727,7 +22727,7 @@
       </c>
       <c r="X125" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y125" t="inlineStr">
@@ -22777,7 +22777,7 @@
       </c>
       <c r="AH125" t="inlineStr">
         <is>
-          <t>Gym</t>
+          <t>Exercise room</t>
         </is>
       </c>
       <c r="AI125" t="inlineStr">
@@ -22807,7 +22807,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -22825,7 +22825,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Fall event</t>
+          <t>Fall-related incident</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -22885,7 +22885,7 @@
       </c>
       <c r="S126" t="inlineStr">
         <is>
-          <t>By nursing staff</t>
+          <t>Nursing team</t>
         </is>
       </c>
       <c r="T126" t="inlineStr">
@@ -22906,7 +22906,7 @@
       </c>
       <c r="X126" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y126" t="inlineStr">
@@ -22956,7 +22956,7 @@
       </c>
       <c r="AH126" t="inlineStr">
         <is>
-          <t>Gym</t>
+          <t>Exercise room</t>
         </is>
       </c>
       <c r="AI126" t="inlineStr">
@@ -22986,7 +22986,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -22999,7 +22999,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Pain|Soft tissue/injury</t>
+          <t>Pain|Soft-tissue injury</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -23044,7 +23044,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>&lt;Unknown&gt;</t>
+          <t>(Unknown)</t>
         </is>
       </c>
       <c r="P127" t="inlineStr">
@@ -23085,7 +23085,7 @@
       </c>
       <c r="X127" t="inlineStr">
         <is>
-          <t>Break</t>
+          <t>Suspension of session</t>
         </is>
       </c>
       <c r="Y127" t="inlineStr">
@@ -23165,7 +23165,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -23178,17 +23178,17 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Nausea/Vomiting</t>
+          <t>Nausea/vomiting</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Physical strain|Medical therapy</t>
+          <t>Physical (Over)exertion|Medical treatment</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Internal medicine type</t>
+          <t>Internal organ</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -23264,7 +23264,7 @@
       </c>
       <c r="X128" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y128" t="inlineStr">
@@ -23344,7 +23344,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -23362,12 +23362,12 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Physical strain|Medical therapy</t>
+          <t>Physical (Over)exertion|Medical treatment</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Internal medicine type</t>
+          <t>Internal organ</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -23443,7 +23443,7 @@
       </c>
       <c r="X129" t="inlineStr">
         <is>
-          <t>Break</t>
+          <t>Suspension of session</t>
         </is>
       </c>
       <c r="Y129" t="inlineStr">
@@ -23523,7 +23523,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -23541,12 +23541,12 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Physical strain|Medical therapy</t>
+          <t>Physical (Over)exertion|Medical treatment</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Internal medicine type</t>
+          <t>Internal organ</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -23622,7 +23622,7 @@
       </c>
       <c r="X130" t="inlineStr">
         <is>
-          <t>Break</t>
+          <t>Suspension of session</t>
         </is>
       </c>
       <c r="Y130" t="inlineStr">
@@ -23702,7 +23702,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -23715,17 +23715,17 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Nausea/Vomiting</t>
+          <t>Nausea/vomiting</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Physical strain|Medical therapy</t>
+          <t>Physical (Over)exertion|Medical treatment</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Internal medicine type</t>
+          <t>Internal organ</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -23801,7 +23801,7 @@
       </c>
       <c r="X131" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y131" t="inlineStr">
@@ -23881,7 +23881,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -23899,12 +23899,12 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Physical strain|Medical therapy</t>
+          <t>Physical (Over)exertion|Medical treatment</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Internal medicine type</t>
+          <t>Internal organ</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -23980,7 +23980,7 @@
       </c>
       <c r="X132" t="inlineStr">
         <is>
-          <t>Break</t>
+          <t>Suspension of session</t>
         </is>
       </c>
       <c r="Y132" t="inlineStr">
@@ -24060,7 +24060,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -24073,12 +24073,12 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Pain|Soft tissue/injury</t>
+          <t>Pain|Soft-tissue injury</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Fall event</t>
+          <t>Fall-related incident</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -24118,7 +24118,7 @@
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>&lt;Unknown&gt;</t>
+          <t>(Unknown)</t>
         </is>
       </c>
       <c r="P133" t="inlineStr">
@@ -24138,7 +24138,7 @@
       </c>
       <c r="S133" t="inlineStr">
         <is>
-          <t>By medical professionals</t>
+          <t>Medical team</t>
         </is>
       </c>
       <c r="T133" t="inlineStr">
@@ -24159,7 +24159,7 @@
       </c>
       <c r="X133" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y133" t="inlineStr">
@@ -24239,7 +24239,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -24257,7 +24257,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Fall event</t>
+          <t>Fall-related incident</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -24297,7 +24297,7 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>&lt;Unknown&gt;</t>
+          <t>(Unknown)</t>
         </is>
       </c>
       <c r="P134" t="inlineStr">
@@ -24317,7 +24317,7 @@
       </c>
       <c r="S134" t="inlineStr">
         <is>
-          <t>By nursing staff</t>
+          <t>Nursing team</t>
         </is>
       </c>
       <c r="T134" t="inlineStr">
@@ -24338,7 +24338,7 @@
       </c>
       <c r="X134" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y134" t="inlineStr">
@@ -24388,7 +24388,7 @@
       </c>
       <c r="AH134" t="inlineStr">
         <is>
-          <t>Gym</t>
+          <t>Exercise room</t>
         </is>
       </c>
       <c r="AI134" t="inlineStr">
@@ -24418,7 +24418,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -24436,7 +24436,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Physical strain</t>
+          <t>Physical (Over)exertion</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -24476,7 +24476,7 @@
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>&lt;Unknown&gt;</t>
+          <t>(Unknown)</t>
         </is>
       </c>
       <c r="P135" t="inlineStr">
@@ -24496,7 +24496,7 @@
       </c>
       <c r="S135" t="inlineStr">
         <is>
-          <t>By physiotherapy</t>
+          <t>Physiotherapy</t>
         </is>
       </c>
       <c r="T135" t="inlineStr">
@@ -24517,7 +24517,7 @@
       </c>
       <c r="X135" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y135" t="inlineStr">
@@ -24567,7 +24567,7 @@
       </c>
       <c r="AH135" t="inlineStr">
         <is>
-          <t>Gym</t>
+          <t>Exercise room</t>
         </is>
       </c>
       <c r="AI135" t="inlineStr">
@@ -24577,7 +24577,7 @@
       </c>
       <c r="AJ135" t="inlineStr">
         <is>
-          <t>2. Time point</t>
+          <t>Second Half</t>
         </is>
       </c>
       <c r="AK135" t="inlineStr">
@@ -24597,7 +24597,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -24610,17 +24610,17 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Nausea/Vomiting</t>
+          <t>Nausea/vomiting</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>Physical strain|Medical therapy</t>
+          <t>Physical (Over)exertion|Medical treatment</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Internal medicine type</t>
+          <t>Internal organ</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -24696,7 +24696,7 @@
       </c>
       <c r="X136" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y136" t="inlineStr">
@@ -24776,7 +24776,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -24794,7 +24794,7 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Physical strain|Medical therapy</t>
+          <t>Physical (Over)exertion|Medical treatment</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -24875,7 +24875,7 @@
       </c>
       <c r="X137" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y137" t="inlineStr">
@@ -24955,7 +24955,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -24973,7 +24973,7 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Fall event</t>
+          <t>Fall-related incident</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -25054,7 +25054,7 @@
       </c>
       <c r="X138" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y138" t="inlineStr">
@@ -25104,7 +25104,7 @@
       </c>
       <c r="AH138" t="inlineStr">
         <is>
-          <t>Gym</t>
+          <t>Exercise room</t>
         </is>
       </c>
       <c r="AI138" t="inlineStr">
@@ -25134,7 +25134,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -25152,7 +25152,7 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Physical strain|Medical therapy</t>
+          <t>Physical (Over)exertion|Medical treatment</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -25192,7 +25192,7 @@
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>&lt;Unknown&gt;</t>
+          <t>(Unknown)</t>
         </is>
       </c>
       <c r="P139" t="inlineStr">
@@ -25233,7 +25233,7 @@
       </c>
       <c r="X139" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y139" t="inlineStr">
@@ -25313,7 +25313,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -25326,12 +25326,12 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Pain|Soft tissue/injury</t>
+          <t>Pain|Soft-tissue injury</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Fall event</t>
+          <t>Fall-related incident</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -25391,7 +25391,7 @@
       </c>
       <c r="S140" t="inlineStr">
         <is>
-          <t>By medical professionals</t>
+          <t>Medical team</t>
         </is>
       </c>
       <c r="T140" t="inlineStr">
@@ -25412,7 +25412,7 @@
       </c>
       <c r="X140" t="inlineStr">
         <is>
-          <t>Break</t>
+          <t>Suspension of session</t>
         </is>
       </c>
       <c r="Y140" t="inlineStr">
@@ -25437,7 +25437,7 @@
       </c>
       <c r="AC140" t="inlineStr">
         <is>
-          <t>Aftercare</t>
+          <t>Post-treatment care</t>
         </is>
       </c>
       <c r="AD140" t="inlineStr">
@@ -25462,7 +25462,7 @@
       </c>
       <c r="AH140" t="inlineStr">
         <is>
-          <t>Gym</t>
+          <t>Exercise room</t>
         </is>
       </c>
       <c r="AI140" t="inlineStr">
@@ -25472,7 +25472,7 @@
       </c>
       <c r="AJ140" t="inlineStr">
         <is>
-          <t>2. Time point</t>
+          <t>Second Half</t>
         </is>
       </c>
       <c r="AK140" t="inlineStr">
@@ -25492,7 +25492,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -25505,12 +25505,12 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Pain|Soft tissue/injury</t>
+          <t>Pain|Soft-tissue injury</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>Fall event</t>
+          <t>Fall-related incident</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -25591,7 +25591,7 @@
       </c>
       <c r="X141" t="inlineStr">
         <is>
-          <t>Break</t>
+          <t>Suspension of session</t>
         </is>
       </c>
       <c r="Y141" t="inlineStr">
@@ -25616,7 +25616,7 @@
       </c>
       <c r="AC141" t="inlineStr">
         <is>
-          <t>Aftercare</t>
+          <t>Post-treatment care</t>
         </is>
       </c>
       <c r="AD141" t="inlineStr">
@@ -25641,7 +25641,7 @@
       </c>
       <c r="AH141" t="inlineStr">
         <is>
-          <t>Gym</t>
+          <t>Exercise room</t>
         </is>
       </c>
       <c r="AI141" t="inlineStr">
@@ -25671,7 +25671,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -25689,7 +25689,7 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>Fall event</t>
+          <t>Fall-related incident</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -25729,7 +25729,7 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>&lt;Unknown&gt;</t>
+          <t>(Unknown)</t>
         </is>
       </c>
       <c r="P142" t="inlineStr">
@@ -25749,7 +25749,7 @@
       </c>
       <c r="S142" t="inlineStr">
         <is>
-          <t>By medical professionals</t>
+          <t>Medical team</t>
         </is>
       </c>
       <c r="T142" t="inlineStr">
@@ -25770,7 +25770,7 @@
       </c>
       <c r="X142" t="inlineStr">
         <is>
-          <t>Break</t>
+          <t>Suspension of session</t>
         </is>
       </c>
       <c r="Y142" t="inlineStr">
@@ -25795,7 +25795,7 @@
       </c>
       <c r="AC142" t="inlineStr">
         <is>
-          <t>Aftercare</t>
+          <t>Post-treatment care</t>
         </is>
       </c>
       <c r="AD142" t="inlineStr">
@@ -25820,7 +25820,7 @@
       </c>
       <c r="AH142" t="inlineStr">
         <is>
-          <t>Outside</t>
+          <t>Outdoors</t>
         </is>
       </c>
       <c r="AI142" t="inlineStr">
@@ -25850,7 +25850,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -25863,12 +25863,12 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Pain|Soft tissue/injury</t>
+          <t>Pain|Soft-tissue injury</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>Fall event</t>
+          <t>Fall-related incident</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -25908,7 +25908,7 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>&lt;Unknown&gt;</t>
+          <t>(Unknown)</t>
         </is>
       </c>
       <c r="P143" t="inlineStr">
@@ -25928,7 +25928,7 @@
       </c>
       <c r="S143" t="inlineStr">
         <is>
-          <t>By physiotherapy</t>
+          <t>Physiotherapy</t>
         </is>
       </c>
       <c r="T143" t="inlineStr">
@@ -25949,7 +25949,7 @@
       </c>
       <c r="X143" t="inlineStr">
         <is>
-          <t>Break</t>
+          <t>Suspension of session</t>
         </is>
       </c>
       <c r="Y143" t="inlineStr">
@@ -25974,7 +25974,7 @@
       </c>
       <c r="AC143" t="inlineStr">
         <is>
-          <t>Aftercare</t>
+          <t>Post-treatment care</t>
         </is>
       </c>
       <c r="AD143" t="inlineStr">
@@ -25999,7 +25999,7 @@
       </c>
       <c r="AH143" t="inlineStr">
         <is>
-          <t>Gym</t>
+          <t>Exercise room</t>
         </is>
       </c>
       <c r="AI143" t="inlineStr">
@@ -26029,7 +26029,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -26047,7 +26047,7 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>Fall event</t>
+          <t>Fall-related incident</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -26087,7 +26087,7 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>&lt;Unknown&gt;</t>
+          <t>(Unknown)</t>
         </is>
       </c>
       <c r="P144" t="inlineStr">
@@ -26107,7 +26107,7 @@
       </c>
       <c r="S144" t="inlineStr">
         <is>
-          <t>By medical professionals</t>
+          <t>Medical team</t>
         </is>
       </c>
       <c r="T144" t="inlineStr">
@@ -26128,7 +26128,7 @@
       </c>
       <c r="X144" t="inlineStr">
         <is>
-          <t>Break</t>
+          <t>Suspension of session</t>
         </is>
       </c>
       <c r="Y144" t="inlineStr">
@@ -26153,7 +26153,7 @@
       </c>
       <c r="AC144" t="inlineStr">
         <is>
-          <t>Aftercare</t>
+          <t>Post-treatment care</t>
         </is>
       </c>
       <c r="AD144" t="inlineStr">
@@ -26178,7 +26178,7 @@
       </c>
       <c r="AH144" t="inlineStr">
         <is>
-          <t>Outside</t>
+          <t>Outdoors</t>
         </is>
       </c>
       <c r="AI144" t="inlineStr">
@@ -26208,7 +26208,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -26221,12 +26221,12 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Pain|Soft tissue/injury</t>
+          <t>Pain|Soft-tissue injury</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>Fall event</t>
+          <t>Fall-related incident</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -26286,7 +26286,7 @@
       </c>
       <c r="S145" t="inlineStr">
         <is>
-          <t>By medical professionals</t>
+          <t>Medical team</t>
         </is>
       </c>
       <c r="T145" t="inlineStr">
@@ -26307,7 +26307,7 @@
       </c>
       <c r="X145" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y145" t="inlineStr">
@@ -26332,7 +26332,7 @@
       </c>
       <c r="AC145" t="inlineStr">
         <is>
-          <t>Aftercare</t>
+          <t>Post-treatment care</t>
         </is>
       </c>
       <c r="AD145" t="inlineStr">
@@ -26357,7 +26357,7 @@
       </c>
       <c r="AH145" t="inlineStr">
         <is>
-          <t>Gym</t>
+          <t>Exercise room</t>
         </is>
       </c>
       <c r="AI145" t="inlineStr">
@@ -26367,7 +26367,7 @@
       </c>
       <c r="AJ145" t="inlineStr">
         <is>
-          <t>2. Time point</t>
+          <t>Second Half</t>
         </is>
       </c>
       <c r="AK145" t="inlineStr">
@@ -26387,7 +26387,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -26405,12 +26405,12 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>Physical strain|Medical therapy</t>
+          <t>Physical (Over)exertion|Medical treatment</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Internal medicine type</t>
+          <t>Internal organ</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -26486,7 +26486,7 @@
       </c>
       <c r="X146" t="inlineStr">
         <is>
-          <t>Break</t>
+          <t>Suspension of session</t>
         </is>
       </c>
       <c r="Y146" t="inlineStr">
@@ -26536,7 +26536,7 @@
       </c>
       <c r="AH146" t="inlineStr">
         <is>
-          <t>Gym</t>
+          <t>Exercise room</t>
         </is>
       </c>
       <c r="AI146" t="inlineStr">
@@ -26546,7 +26546,7 @@
       </c>
       <c r="AJ146" t="inlineStr">
         <is>
-          <t>1. Time point</t>
+          <t>First Half</t>
         </is>
       </c>
       <c r="AK146" t="inlineStr">
@@ -26566,7 +26566,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -26579,17 +26579,17 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Nausea/Vomiting</t>
+          <t>Nausea/vomiting</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>Physical strain|Medical therapy</t>
+          <t>Physical (Over)exertion|Medical treatment</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Internal medicine type</t>
+          <t>Internal organ</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -26665,7 +26665,7 @@
       </c>
       <c r="X147" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y147" t="inlineStr">
@@ -26715,7 +26715,7 @@
       </c>
       <c r="AH147" t="inlineStr">
         <is>
-          <t>Gym</t>
+          <t>Exercise room</t>
         </is>
       </c>
       <c r="AI147" t="inlineStr">
@@ -26745,7 +26745,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -26758,17 +26758,17 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Nausea/Vomiting</t>
+          <t>Nausea/vomiting</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>Physical strain|Medical therapy</t>
+          <t>Physical (Over)exertion|Medical treatment</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Internal medicine type</t>
+          <t>Internal organ</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -26844,7 +26844,7 @@
       </c>
       <c r="X148" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y148" t="inlineStr">
@@ -26899,7 +26899,7 @@
       </c>
       <c r="AI148" t="inlineStr">
         <is>
-          <t>Full body</t>
+          <t>Multimodal</t>
         </is>
       </c>
       <c r="AJ148" t="inlineStr">
@@ -26924,7 +26924,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -26937,17 +26937,17 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Nausea/Vomiting</t>
+          <t>Nausea/vomiting</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Physical strain|Medical therapy</t>
+          <t>Physical (Over)exertion|Medical treatment</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Internal medicine type</t>
+          <t>Internal organ</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -27023,7 +27023,7 @@
       </c>
       <c r="X149" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y149" t="inlineStr">
@@ -27073,7 +27073,7 @@
       </c>
       <c r="AH149" t="inlineStr">
         <is>
-          <t>Patients room</t>
+          <t>Patient room</t>
         </is>
       </c>
       <c r="AI149" t="inlineStr">
@@ -27103,7 +27103,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -27121,12 +27121,12 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Physical strain|Medical therapy</t>
+          <t>Physical (Over)exertion|Medical treatment</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Internal medicine type</t>
+          <t>Internal organ</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -27202,7 +27202,7 @@
       </c>
       <c r="X150" t="inlineStr">
         <is>
-          <t>Break</t>
+          <t>Suspension of session</t>
         </is>
       </c>
       <c r="Y150" t="inlineStr">
@@ -27252,12 +27252,12 @@
       </c>
       <c r="AH150" t="inlineStr">
         <is>
-          <t>Gym</t>
+          <t>Exercise room</t>
         </is>
       </c>
       <c r="AI150" t="inlineStr">
         <is>
-          <t>Full body</t>
+          <t>Multimodal</t>
         </is>
       </c>
       <c r="AJ150" t="inlineStr">
@@ -27282,7 +27282,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Already present</t>
+          <t>Pre-existing, aggravated</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -27300,7 +27300,7 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Physical strain|Medical therapy</t>
+          <t>Physical (Over)exertion|Medical treatment</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -27340,7 +27340,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>&lt;Unknown&gt;</t>
+          <t>(Unknown)</t>
         </is>
       </c>
       <c r="P151" t="inlineStr">
@@ -27360,7 +27360,7 @@
       </c>
       <c r="S151" t="inlineStr">
         <is>
-          <t>By nursing staff</t>
+          <t>Nursing team</t>
         </is>
       </c>
       <c r="T151" t="inlineStr">
@@ -27381,7 +27381,7 @@
       </c>
       <c r="X151" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y151" t="inlineStr">
@@ -27431,7 +27431,7 @@
       </c>
       <c r="AH151" t="inlineStr">
         <is>
-          <t>Gym</t>
+          <t>Exercise room</t>
         </is>
       </c>
       <c r="AI151" t="inlineStr">
@@ -27461,7 +27461,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -27479,7 +27479,7 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>Physical strain</t>
+          <t>Physical (Over)exertion</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -27519,7 +27519,7 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>&lt;Unknown&gt;</t>
+          <t>(Unknown)</t>
         </is>
       </c>
       <c r="P152" t="inlineStr">
@@ -27560,7 +27560,7 @@
       </c>
       <c r="X152" t="inlineStr">
         <is>
-          <t>Break</t>
+          <t>Suspension of session</t>
         </is>
       </c>
       <c r="Y152" t="inlineStr">
@@ -27610,7 +27610,7 @@
       </c>
       <c r="AH152" t="inlineStr">
         <is>
-          <t>Patients room</t>
+          <t>Patient room</t>
         </is>
       </c>
       <c r="AI152" t="inlineStr">
@@ -27640,7 +27640,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -27653,17 +27653,17 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Nausea/Vomiting</t>
+          <t>Nausea/vomiting</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>Physical strain|Medical therapy</t>
+          <t>Physical (Over)exertion|Medical treatment</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Internal medicine type</t>
+          <t>Internal organ</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -27739,7 +27739,7 @@
       </c>
       <c r="X153" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y153" t="inlineStr">
@@ -27789,7 +27789,7 @@
       </c>
       <c r="AH153" t="inlineStr">
         <is>
-          <t>Patients room</t>
+          <t>Patient room</t>
         </is>
       </c>
       <c r="AI153" t="inlineStr">
@@ -27799,7 +27799,7 @@
       </c>
       <c r="AJ153" t="inlineStr">
         <is>
-          <t>1. Time point</t>
+          <t>First Half</t>
         </is>
       </c>
       <c r="AK153" t="inlineStr">
@@ -27819,7 +27819,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -27832,17 +27832,17 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Nausea/Vomiting</t>
+          <t>Nausea/vomiting</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>Physical strain|Medical therapy</t>
+          <t>Physical (Over)exertion|Medical treatment</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Internal medicine type</t>
+          <t>Internal organ</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -27918,7 +27918,7 @@
       </c>
       <c r="X154" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y154" t="inlineStr">
@@ -27973,7 +27973,7 @@
       </c>
       <c r="AI154" t="inlineStr">
         <is>
-          <t>Full body</t>
+          <t>Multimodal</t>
         </is>
       </c>
       <c r="AJ154" t="inlineStr">
@@ -27998,7 +27998,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -28016,12 +28016,12 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>Physical strain|Medical therapy</t>
+          <t>Physical (Over)exertion|Medical treatment</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Internal medicine type</t>
+          <t>Internal organ</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -28056,7 +28056,7 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>&lt;Unknown&gt;</t>
+          <t>(Unknown)</t>
         </is>
       </c>
       <c r="P155" t="inlineStr">
@@ -28076,7 +28076,7 @@
       </c>
       <c r="S155" t="inlineStr">
         <is>
-          <t>By medical professionals</t>
+          <t>Medical team</t>
         </is>
       </c>
       <c r="T155" t="inlineStr">
@@ -28097,7 +28097,7 @@
       </c>
       <c r="X155" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y155" t="inlineStr">
@@ -28157,7 +28157,7 @@
       </c>
       <c r="AJ155" t="inlineStr">
         <is>
-          <t>1. Time point</t>
+          <t>First Half</t>
         </is>
       </c>
       <c r="AK155" t="inlineStr">
@@ -28177,7 +28177,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -28190,17 +28190,17 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Nausea/Vomiting|Circulatory problems</t>
+          <t>Nausea/vomiting|Circulatory problems</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>Physical strain|Medical therapy</t>
+          <t>Physical (Over)exertion|Medical treatment</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Internal medicine type</t>
+          <t>Internal organ</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -28235,7 +28235,7 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>&lt;Unknown&gt;</t>
+          <t>(Unknown)</t>
         </is>
       </c>
       <c r="P156" t="inlineStr">
@@ -28276,7 +28276,7 @@
       </c>
       <c r="X156" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y156" t="inlineStr">
@@ -28326,7 +28326,7 @@
       </c>
       <c r="AH156" t="inlineStr">
         <is>
-          <t>Patients room</t>
+          <t>Patient room</t>
         </is>
       </c>
       <c r="AI156" t="inlineStr">
@@ -28336,7 +28336,7 @@
       </c>
       <c r="AJ156" t="inlineStr">
         <is>
-          <t>1. Time point</t>
+          <t>First Half</t>
         </is>
       </c>
       <c r="AK156" t="inlineStr">
@@ -28356,7 +28356,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -28374,7 +28374,7 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>Physical strain</t>
+          <t>Physical (Over)exertion</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -28414,7 +28414,7 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>&lt;Unknown&gt;</t>
+          <t>(Unknown)</t>
         </is>
       </c>
       <c r="P157" t="inlineStr">
@@ -28505,7 +28505,7 @@
       </c>
       <c r="AH157" t="inlineStr">
         <is>
-          <t>Gym</t>
+          <t>Exercise room</t>
         </is>
       </c>
       <c r="AI157" t="inlineStr">
@@ -28515,7 +28515,7 @@
       </c>
       <c r="AJ157" t="inlineStr">
         <is>
-          <t>2. Time point</t>
+          <t>Second Half</t>
         </is>
       </c>
       <c r="AK157" t="inlineStr">
@@ -28535,7 +28535,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -28553,12 +28553,12 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>Psychological strain</t>
+          <t>Psychological stress</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Internal medicine type</t>
+          <t>Internal organ</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -28593,7 +28593,7 @@
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>&lt;Unknown&gt;</t>
+          <t>(Unknown)</t>
         </is>
       </c>
       <c r="P158" t="inlineStr">
@@ -28634,7 +28634,7 @@
       </c>
       <c r="X158" t="inlineStr">
         <is>
-          <t>Break</t>
+          <t>Suspension of session</t>
         </is>
       </c>
       <c r="Y158" t="inlineStr">
@@ -28684,7 +28684,7 @@
       </c>
       <c r="AH158" t="inlineStr">
         <is>
-          <t>Patients room</t>
+          <t>Patient room</t>
         </is>
       </c>
       <c r="AI158" t="inlineStr">
@@ -28694,7 +28694,7 @@
       </c>
       <c r="AJ158" t="inlineStr">
         <is>
-          <t>1. Time point</t>
+          <t>First Half</t>
         </is>
       </c>
       <c r="AK158" t="inlineStr">
@@ -28714,7 +28714,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -28727,12 +28727,12 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Pain|Soft tissue/injury</t>
+          <t>Pain|Soft-tissue injury</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>Fall event</t>
+          <t>Fall-related incident</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -28772,7 +28772,7 @@
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>&lt;Unknown&gt;</t>
+          <t>(Unknown)</t>
         </is>
       </c>
       <c r="P159" t="inlineStr">
@@ -28792,7 +28792,7 @@
       </c>
       <c r="S159" t="inlineStr">
         <is>
-          <t>By medical professionals</t>
+          <t>Medical team</t>
         </is>
       </c>
       <c r="T159" t="inlineStr">
@@ -28813,7 +28813,7 @@
       </c>
       <c r="X159" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y159" t="inlineStr">
@@ -28863,12 +28863,12 @@
       </c>
       <c r="AH159" t="inlineStr">
         <is>
-          <t>Gym</t>
+          <t>Exercise room</t>
         </is>
       </c>
       <c r="AI159" t="inlineStr">
         <is>
-          <t>Full body</t>
+          <t>Multimodal</t>
         </is>
       </c>
       <c r="AJ159" t="inlineStr">
@@ -28893,7 +28893,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -28911,7 +28911,7 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>Physical strain|Medical therapy</t>
+          <t>Physical (Over)exertion|Medical treatment</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -28992,7 +28992,7 @@
       </c>
       <c r="X160" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y160" t="inlineStr">
@@ -29042,7 +29042,7 @@
       </c>
       <c r="AH160" t="inlineStr">
         <is>
-          <t>Gym</t>
+          <t>Exercise room</t>
         </is>
       </c>
       <c r="AI160" t="inlineStr">
@@ -29052,7 +29052,7 @@
       </c>
       <c r="AJ160" t="inlineStr">
         <is>
-          <t>1. Time point</t>
+          <t>First Half</t>
         </is>
       </c>
       <c r="AK160" t="inlineStr">
@@ -29072,7 +29072,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -29090,12 +29090,12 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>Physical strain</t>
+          <t>Physical (Over)exertion</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Internal medicine type</t>
+          <t>Internal organ</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -29130,7 +29130,7 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>&lt;Unknown&gt;</t>
+          <t>(Unknown)</t>
         </is>
       </c>
       <c r="P161" t="inlineStr">
@@ -29171,7 +29171,7 @@
       </c>
       <c r="X161" t="inlineStr">
         <is>
-          <t>Break</t>
+          <t>Suspension of session</t>
         </is>
       </c>
       <c r="Y161" t="inlineStr">
@@ -29221,7 +29221,7 @@
       </c>
       <c r="AH161" t="inlineStr">
         <is>
-          <t>Patients room</t>
+          <t>Patient room</t>
         </is>
       </c>
       <c r="AI161" t="inlineStr">
@@ -29251,7 +29251,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -29269,7 +29269,7 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>Fall event|Environmental conditions</t>
+          <t>Fall-related incident|Environmental conditions</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -29350,7 +29350,7 @@
       </c>
       <c r="X162" t="inlineStr">
         <is>
-          <t>Break</t>
+          <t>Suspension of session</t>
         </is>
       </c>
       <c r="Y162" t="inlineStr">
@@ -29400,7 +29400,7 @@
       </c>
       <c r="AH162" t="inlineStr">
         <is>
-          <t>Outside</t>
+          <t>Outdoors</t>
         </is>
       </c>
       <c r="AI162" t="inlineStr">
@@ -29410,7 +29410,7 @@
       </c>
       <c r="AJ162" t="inlineStr">
         <is>
-          <t>1. Time point</t>
+          <t>First Half</t>
         </is>
       </c>
       <c r="AK162" t="inlineStr">
@@ -29430,7 +29430,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -29443,12 +29443,12 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Pain|Superficial injuries|Soft tissue/injury</t>
+          <t>Pain|Superficial injuries|Soft-tissue injury</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>Environmental conditions|Colliding</t>
+          <t>Environmental conditions|Collision</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -29508,7 +29508,7 @@
       </c>
       <c r="S163" t="inlineStr">
         <is>
-          <t>By nursing staff</t>
+          <t>Nursing team</t>
         </is>
       </c>
       <c r="T163" t="inlineStr">
@@ -29529,7 +29529,7 @@
       </c>
       <c r="X163" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y163" t="inlineStr">
@@ -29589,7 +29589,7 @@
       </c>
       <c r="AJ163" t="inlineStr">
         <is>
-          <t>2. Time point</t>
+          <t>Second Half</t>
         </is>
       </c>
       <c r="AK163" t="inlineStr">
@@ -29609,7 +29609,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Already present</t>
+          <t>Pre-existing, aggravated</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -29627,7 +29627,7 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>Physical strain</t>
+          <t>Physical (Over)exertion</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -29667,7 +29667,7 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>&lt;Unknown&gt;</t>
+          <t>(Unknown)</t>
         </is>
       </c>
       <c r="P164" t="inlineStr">
@@ -29687,7 +29687,7 @@
       </c>
       <c r="S164" t="inlineStr">
         <is>
-          <t>By nursing staff</t>
+          <t>Nursing team</t>
         </is>
       </c>
       <c r="T164" t="inlineStr">
@@ -29768,7 +29768,7 @@
       </c>
       <c r="AJ164" t="inlineStr">
         <is>
-          <t>2. Time point</t>
+          <t>Second Half</t>
         </is>
       </c>
       <c r="AK164" t="inlineStr">
@@ -29788,7 +29788,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Already present</t>
+          <t>Pre-existing, aggravated</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -29801,17 +29801,17 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Nausea/Vomiting</t>
+          <t>Nausea/vomiting</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>Medical therapy</t>
+          <t>Medical treatment</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Internal medicine type</t>
+          <t>Internal organ</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -29887,7 +29887,7 @@
       </c>
       <c r="X165" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y165" t="inlineStr">
@@ -29947,7 +29947,7 @@
       </c>
       <c r="AJ165" t="inlineStr">
         <is>
-          <t>1. Time point</t>
+          <t>First Half</t>
         </is>
       </c>
       <c r="AK165" t="inlineStr">
@@ -29967,7 +29967,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -29980,12 +29980,12 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Severe exhaustion</t>
+          <t>Physical (Over)exertion</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>Physical strain</t>
+          <t>Physical (Over)exertion</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -30116,7 +30116,7 @@
       </c>
       <c r="AH166" t="inlineStr">
         <is>
-          <t>Gym</t>
+          <t>Exercise room</t>
         </is>
       </c>
       <c r="AI166" t="inlineStr">
@@ -30126,7 +30126,7 @@
       </c>
       <c r="AJ166" t="inlineStr">
         <is>
-          <t>2. Time point</t>
+          <t>Second Half</t>
         </is>
       </c>
       <c r="AK166" t="inlineStr">
@@ -30146,7 +30146,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -30159,12 +30159,12 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Pain|Superficial injuries|Soft tissue/injury</t>
+          <t>Pain|Superficial injuries|Soft-tissue injury</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>Fall event</t>
+          <t>Fall-related incident</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -30245,7 +30245,7 @@
       </c>
       <c r="X167" t="inlineStr">
         <is>
-          <t>Break</t>
+          <t>Suspension of session</t>
         </is>
       </c>
       <c r="Y167" t="inlineStr">
@@ -30270,7 +30270,7 @@
       </c>
       <c r="AC167" t="inlineStr">
         <is>
-          <t>Aftercare</t>
+          <t>Post-treatment care</t>
         </is>
       </c>
       <c r="AD167" t="inlineStr">
@@ -30295,7 +30295,7 @@
       </c>
       <c r="AH167" t="inlineStr">
         <is>
-          <t>Gym</t>
+          <t>Exercise room</t>
         </is>
       </c>
       <c r="AI167" t="inlineStr">
@@ -30305,7 +30305,7 @@
       </c>
       <c r="AJ167" t="inlineStr">
         <is>
-          <t>2. Time point</t>
+          <t>Second Half</t>
         </is>
       </c>
       <c r="AK167" t="inlineStr">
@@ -30325,7 +30325,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -30338,17 +30338,17 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Nausea/Vomiting|Soft tissue/injury</t>
+          <t>Nausea/vomiting|Soft-tissue injury</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>Medical therapy</t>
+          <t>Medical treatment</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Internal medicine type</t>
+          <t>Internal organ</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -30403,7 +30403,7 @@
       </c>
       <c r="S168" t="inlineStr">
         <is>
-          <t>By medical professionals</t>
+          <t>Medical team</t>
         </is>
       </c>
       <c r="T168" t="inlineStr">
@@ -30424,7 +30424,7 @@
       </c>
       <c r="X168" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y168" t="inlineStr">
@@ -30484,7 +30484,7 @@
       </c>
       <c r="AJ168" t="inlineStr">
         <is>
-          <t>1. Time point</t>
+          <t>First Half</t>
         </is>
       </c>
       <c r="AK168" t="inlineStr">
@@ -30504,7 +30504,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -30582,7 +30582,7 @@
       </c>
       <c r="S169" t="inlineStr">
         <is>
-          <t>By nursing staff</t>
+          <t>Nursing team</t>
         </is>
       </c>
       <c r="T169" t="inlineStr">
@@ -30598,12 +30598,12 @@
       </c>
       <c r="W169" t="inlineStr">
         <is>
-          <t>&lt;Unknown&gt;</t>
+          <t>(Unknown)</t>
         </is>
       </c>
       <c r="X169" t="inlineStr">
         <is>
-          <t>Break</t>
+          <t>Suspension of session</t>
         </is>
       </c>
       <c r="Y169" t="inlineStr">
@@ -30628,7 +30628,7 @@
       </c>
       <c r="AC169" t="inlineStr">
         <is>
-          <t>Aftercare</t>
+          <t>Post-treatment care</t>
         </is>
       </c>
       <c r="AD169" t="inlineStr">
@@ -30653,7 +30653,7 @@
       </c>
       <c r="AH169" t="inlineStr">
         <is>
-          <t>Gym</t>
+          <t>Exercise room</t>
         </is>
       </c>
       <c r="AI169" t="inlineStr">
@@ -30663,7 +30663,7 @@
       </c>
       <c r="AJ169" t="inlineStr">
         <is>
-          <t>2. Time point</t>
+          <t>Second Half</t>
         </is>
       </c>
       <c r="AK169" t="inlineStr">
@@ -30683,7 +30683,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -30696,12 +30696,12 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Pain|Soft tissue/injury</t>
+          <t>Pain|Soft-tissue injury</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>Fall event</t>
+          <t>Fall-related incident</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -30782,7 +30782,7 @@
       </c>
       <c r="X170" t="inlineStr">
         <is>
-          <t>Break</t>
+          <t>Suspension of session</t>
         </is>
       </c>
       <c r="Y170" t="inlineStr">
@@ -30807,7 +30807,7 @@
       </c>
       <c r="AC170" t="inlineStr">
         <is>
-          <t>Aftercare</t>
+          <t>Post-treatment care</t>
         </is>
       </c>
       <c r="AD170" t="inlineStr">
@@ -30832,7 +30832,7 @@
       </c>
       <c r="AH170" t="inlineStr">
         <is>
-          <t>Gym</t>
+          <t>Exercise room</t>
         </is>
       </c>
       <c r="AI170" t="inlineStr">
@@ -30842,7 +30842,7 @@
       </c>
       <c r="AJ170" t="inlineStr">
         <is>
-          <t>2. Time point</t>
+          <t>Second Half</t>
         </is>
       </c>
       <c r="AK170" t="inlineStr">
@@ -30862,7 +30862,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -30880,12 +30880,12 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>Physical strain|Medical therapy</t>
+          <t>Physical (Over)exertion|Medical treatment</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Internal medicine type</t>
+          <t>Internal organ</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -30961,7 +30961,7 @@
       </c>
       <c r="X171" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y171" t="inlineStr">
@@ -31011,7 +31011,7 @@
       </c>
       <c r="AH171" t="inlineStr">
         <is>
-          <t>Gym</t>
+          <t>Exercise room</t>
         </is>
       </c>
       <c r="AI171" t="inlineStr">
@@ -31021,7 +31021,7 @@
       </c>
       <c r="AJ171" t="inlineStr">
         <is>
-          <t>1. Time point</t>
+          <t>First Half</t>
         </is>
       </c>
       <c r="AK171" t="inlineStr">
@@ -31041,7 +31041,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -31054,17 +31054,17 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Nausea/Vomiting</t>
+          <t>Nausea/vomiting</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>Physical strain</t>
+          <t>Physical (Over)exertion</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Internal medicine type</t>
+          <t>Internal organ</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -31140,7 +31140,7 @@
       </c>
       <c r="X172" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y172" t="inlineStr">
@@ -31190,7 +31190,7 @@
       </c>
       <c r="AH172" t="inlineStr">
         <is>
-          <t>Gym</t>
+          <t>Exercise room</t>
         </is>
       </c>
       <c r="AI172" t="inlineStr">
@@ -31200,7 +31200,7 @@
       </c>
       <c r="AJ172" t="inlineStr">
         <is>
-          <t>2. Time point</t>
+          <t>Second Half</t>
         </is>
       </c>
       <c r="AK172" t="inlineStr">
@@ -31220,7 +31220,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -31238,12 +31238,12 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>Physical strain|Medical therapy</t>
+          <t>Physical (Over)exertion|Medical treatment</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Intestine</t>
+          <t>Bowel</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -31319,7 +31319,7 @@
       </c>
       <c r="X173" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y173" t="inlineStr">
@@ -31369,7 +31369,7 @@
       </c>
       <c r="AH173" t="inlineStr">
         <is>
-          <t>Gym</t>
+          <t>Exercise room</t>
         </is>
       </c>
       <c r="AI173" t="inlineStr">
@@ -31379,7 +31379,7 @@
       </c>
       <c r="AJ173" t="inlineStr">
         <is>
-          <t>1. Time point</t>
+          <t>First Half</t>
         </is>
       </c>
       <c r="AK173" t="inlineStr">
@@ -31399,7 +31399,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Already present</t>
+          <t>Pre-existing, aggravated</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -31417,7 +31417,7 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>Physical strain</t>
+          <t>Physical (Over)exertion</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -31498,7 +31498,7 @@
       </c>
       <c r="X174" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y174" t="inlineStr">
@@ -31548,7 +31548,7 @@
       </c>
       <c r="AH174" t="inlineStr">
         <is>
-          <t>Gym</t>
+          <t>Exercise room</t>
         </is>
       </c>
       <c r="AI174" t="inlineStr">
@@ -31558,7 +31558,7 @@
       </c>
       <c r="AJ174" t="inlineStr">
         <is>
-          <t>2. Time point</t>
+          <t>Second Half</t>
         </is>
       </c>
       <c r="AK174" t="inlineStr">
@@ -31578,7 +31578,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -31596,7 +31596,7 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>Physical strain</t>
+          <t>Physical (Over)exertion</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -31677,7 +31677,7 @@
       </c>
       <c r="X175" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y175" t="inlineStr">
@@ -31727,17 +31727,17 @@
       </c>
       <c r="AH175" t="inlineStr">
         <is>
-          <t>Gym</t>
+          <t>Exercise room</t>
         </is>
       </c>
       <c r="AI175" t="inlineStr">
         <is>
-          <t>Full body</t>
+          <t>Multimodal</t>
         </is>
       </c>
       <c r="AJ175" t="inlineStr">
         <is>
-          <t>2. Time point</t>
+          <t>Second Half</t>
         </is>
       </c>
       <c r="AK175" t="inlineStr">
@@ -31757,7 +31757,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Already present</t>
+          <t>Pre-existing, aggravated</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -31775,7 +31775,7 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>Physical strain</t>
+          <t>Physical (Over)exertion</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -31856,7 +31856,7 @@
       </c>
       <c r="X176" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y176" t="inlineStr">
@@ -31916,7 +31916,7 @@
       </c>
       <c r="AJ176" t="inlineStr">
         <is>
-          <t>2. Time point</t>
+          <t>Second Half</t>
         </is>
       </c>
       <c r="AK176" t="inlineStr">
@@ -31936,7 +31936,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -31949,12 +31949,12 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Nausea/Vomiting</t>
+          <t>Nausea/vomiting</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>Psychological strain|Medical therapy</t>
+          <t>Psychological stress|Medical treatment</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -32035,7 +32035,7 @@
       </c>
       <c r="X177" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y177" t="inlineStr">
@@ -32085,7 +32085,7 @@
       </c>
       <c r="AH177" t="inlineStr">
         <is>
-          <t>Gym</t>
+          <t>Exercise room</t>
         </is>
       </c>
       <c r="AI177" t="inlineStr">
@@ -32095,7 +32095,7 @@
       </c>
       <c r="AJ177" t="inlineStr">
         <is>
-          <t>1. Time point</t>
+          <t>First Half</t>
         </is>
       </c>
       <c r="AK177" t="inlineStr">
@@ -32115,7 +32115,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -32128,17 +32128,17 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Pain|Schmerzhafter Spontaneous painful bowel movement</t>
+          <t>Pain|Spontaneous painful bowel movement</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>Physical strain|Medical therapy</t>
+          <t>Physical (Over)exertion|Medical treatment</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Intestine</t>
+          <t>Bowel</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
@@ -32214,7 +32214,7 @@
       </c>
       <c r="X178" t="inlineStr">
         <is>
-          <t>Cessation</t>
+          <t>Termination of session</t>
         </is>
       </c>
       <c r="Y178" t="inlineStr">
@@ -32264,17 +32264,17 @@
       </c>
       <c r="AH178" t="inlineStr">
         <is>
-          <t>Gym</t>
+          <t>Exercise room</t>
         </is>
       </c>
       <c r="AI178" t="inlineStr">
         <is>
-          <t>Full body</t>
+          <t>Multimodal</t>
         </is>
       </c>
       <c r="AJ178" t="inlineStr">
         <is>
-          <t>2. Time point</t>
+          <t>Second Half</t>
         </is>
       </c>
       <c r="AK178" t="inlineStr">
@@ -32294,7 +32294,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>First occurrence</t>
+          <t>New onset</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -32312,7 +32312,7 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>Physical strain</t>
+          <t>Physical (Over)exertion</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -32352,7 +32352,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>&lt;Unknown&gt;</t>
+          <t>(Unknown)</t>
         </is>
       </c>
       <c r="P179" t="inlineStr">
@@ -32393,7 +32393,7 @@
       </c>
       <c r="X179" t="inlineStr">
         <is>
-          <t>Break</t>
+          <t>Suspension of session</t>
         </is>
       </c>
       <c r="Y179" t="inlineStr">
@@ -32443,7 +32443,7 @@
       </c>
       <c r="AH179" t="inlineStr">
         <is>
-          <t>Gym</t>
+          <t>Exercise room</t>
         </is>
       </c>
       <c r="AI179" t="inlineStr">
@@ -32453,7 +32453,7 @@
       </c>
       <c r="AJ179" t="inlineStr">
         <is>
-          <t>2. Time point</t>
+          <t>Second Half</t>
         </is>
       </c>
       <c r="AK179" t="inlineStr">

--- a/data/out/df_csv_condensed.xlsx
+++ b/data/out/df_csv_condensed.xlsx
@@ -560,7 +560,7 @@
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>[03.13] Stop</t>
+          <t>[03.13] Suspension and termination of session</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
